--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34672573276123</v>
+        <v>18.34672573276119</v>
       </c>
       <c r="C2">
-        <v>10.7536242963206</v>
+        <v>10.75362429632056</v>
       </c>
       <c r="D2">
-        <v>7.16940811510346</v>
+        <v>7.169408115103415</v>
       </c>
       <c r="E2">
-        <v>8.382440251608793</v>
+        <v>8.382440251608713</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.91096438370486</v>
+        <v>63.91096438370462</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.57574868883452</v>
+        <v>15.57574868883445</v>
       </c>
       <c r="K2">
-        <v>8.863375630756156</v>
+        <v>8.863375630756122</v>
       </c>
       <c r="L2">
-        <v>13.85702853944271</v>
+        <v>13.85702853944268</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.92118318051301</v>
+        <v>16.92118318051302</v>
       </c>
       <c r="C3">
-        <v>9.915131242222261</v>
+        <v>9.91513124222206</v>
       </c>
       <c r="D3">
-        <v>6.638633625614189</v>
+        <v>6.638633625614139</v>
       </c>
       <c r="E3">
-        <v>8.045261362917277</v>
+        <v>8.045261362917389</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.96897249750642</v>
+        <v>59.96897249750637</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.37526706518277</v>
+        <v>14.3752670651827</v>
       </c>
       <c r="K3">
-        <v>8.427570275488399</v>
+        <v>8.427570275488428</v>
       </c>
       <c r="L3">
-        <v>12.83703716471637</v>
+        <v>12.83703716471631</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.01428012005347</v>
+        <v>16.01428012005341</v>
       </c>
       <c r="C4">
-        <v>9.384495116920624</v>
+        <v>9.384495116920547</v>
       </c>
       <c r="D4">
-        <v>6.298802228650146</v>
+        <v>6.298802228650163</v>
       </c>
       <c r="E4">
-        <v>7.837474060658598</v>
+        <v>7.837474060658532</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.47912092594029</v>
+        <v>57.47912092594007</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.61070606217671</v>
+        <v>13.61070606217664</v>
       </c>
       <c r="K4">
-        <v>8.159643029775211</v>
+        <v>8.159643029775159</v>
       </c>
       <c r="L4">
-        <v>12.18524624473882</v>
+        <v>12.18524624473881</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63640492697809</v>
+        <v>15.63640492697801</v>
       </c>
       <c r="C5">
-        <v>9.163961597903178</v>
+        <v>9.163961597903198</v>
       </c>
       <c r="D5">
-        <v>6.177744822189393</v>
+        <v>6.17774482218937</v>
       </c>
       <c r="E5">
-        <v>7.752617425502733</v>
+        <v>7.752617425502782</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.44676551080915</v>
+        <v>56.44676551080913</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.29186392485214</v>
+        <v>13.29186392485212</v>
       </c>
       <c r="K5">
-        <v>8.050419400124831</v>
+        <v>8.050419400124859</v>
       </c>
       <c r="L5">
-        <v>11.91295118190431</v>
+        <v>11.91295118190425</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57314826570451</v>
+        <v>15.57314826570468</v>
       </c>
       <c r="C6">
-        <v>9.12707405184662</v>
+        <v>9.127074051846531</v>
       </c>
       <c r="D6">
-        <v>6.157796874504226</v>
+        <v>6.157796874504225</v>
       </c>
       <c r="E6">
-        <v>7.738516684345869</v>
+        <v>7.738516684345881</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.27427070103786</v>
+        <v>56.27427070103816</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.23847080030422</v>
+        <v>13.2384708003043</v>
       </c>
       <c r="K6">
-        <v>8.032282325747751</v>
+        <v>8.032282325747765</v>
       </c>
       <c r="L6">
-        <v>11.86732571371969</v>
+        <v>11.86732571371977</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00921801292636</v>
+        <v>16.00921801292639</v>
       </c>
       <c r="C7">
-        <v>9.381538713963094</v>
+        <v>9.381538713962851</v>
       </c>
       <c r="D7">
-        <v>6.296900446101819</v>
+        <v>6.296900446101833</v>
       </c>
       <c r="E7">
-        <v>7.836330364697773</v>
+        <v>7.836330364697805</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.46527012796972</v>
+        <v>57.46527012796992</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.60643597321319</v>
+        <v>13.60643597321316</v>
       </c>
       <c r="K7">
-        <v>8.158170086106123</v>
+        <v>8.158170086106168</v>
       </c>
       <c r="L7">
-        <v>12.18160138063197</v>
+        <v>12.18160138063192</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.86152592062699</v>
+        <v>17.86152592062702</v>
       </c>
       <c r="C8">
-        <v>10.46758401814021</v>
+        <v>10.46758401814028</v>
       </c>
       <c r="D8">
-        <v>6.989205666814261</v>
+        <v>6.989205666814405</v>
       </c>
       <c r="E8">
-        <v>8.266337653788961</v>
+        <v>8.266337653789039</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.56594699338206</v>
+        <v>62.56594699338236</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.1672840607167</v>
+        <v>15.1672840607168</v>
       </c>
       <c r="K8">
-        <v>8.713197132577976</v>
+        <v>8.71319713257801</v>
       </c>
       <c r="L8">
-        <v>13.51045818802051</v>
+        <v>13.51045818802057</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.26285648729455</v>
+        <v>21.26285648729443</v>
       </c>
       <c r="C9">
-        <v>12.48895003271221</v>
+        <v>12.48895003271248</v>
       </c>
       <c r="D9">
-        <v>8.243037083091096</v>
+        <v>8.243037083090977</v>
       </c>
       <c r="E9">
-        <v>9.104348127396126</v>
+        <v>9.104348127396159</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.04311634989854</v>
+        <v>72.04311634989776</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.02969152409996</v>
+        <v>18.02969152409991</v>
       </c>
       <c r="K9">
-        <v>9.798884405753954</v>
+        <v>9.798884405753967</v>
       </c>
       <c r="L9">
-        <v>15.92799770512626</v>
+        <v>15.9279977051262</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.65544887004515</v>
+        <v>23.65544887004504</v>
       </c>
       <c r="C10">
-        <v>13.93655400250708</v>
+        <v>13.93655400250703</v>
       </c>
       <c r="D10">
-        <v>9.112165710014605</v>
+        <v>9.11216571001453</v>
       </c>
       <c r="E10">
-        <v>9.720070262899286</v>
+        <v>9.720070262899249</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.74477497596713</v>
+        <v>78.74477497596641</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.04427623026499</v>
+        <v>20.04427623026488</v>
       </c>
       <c r="K10">
         <v>10.80878423391492</v>
       </c>
       <c r="L10">
-        <v>17.61277060450664</v>
+        <v>17.61277060450657</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.73099540528147</v>
+        <v>24.73099540528121</v>
       </c>
       <c r="C11">
-        <v>14.59522417289586</v>
+        <v>14.59522417289544</v>
       </c>
       <c r="D11">
-        <v>9.499418853682021</v>
+        <v>9.499418853681941</v>
       </c>
       <c r="E11">
-        <v>10.00163858247189</v>
+        <v>10.00163858247176</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.75748477695068</v>
+        <v>81.75748477694941</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.95088673406932</v>
+        <v>20.95088673406902</v>
       </c>
       <c r="K11">
-        <v>11.26486053930457</v>
+        <v>11.26486053930448</v>
       </c>
       <c r="L11">
-        <v>18.36604454315228</v>
+        <v>18.36604454315208</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.13753382577624</v>
+        <v>25.13753382577647</v>
       </c>
       <c r="C12">
-        <v>14.84555783691348</v>
+        <v>14.84555783691374</v>
       </c>
       <c r="D12">
-        <v>9.645230233766263</v>
+        <v>9.645230233766359</v>
       </c>
       <c r="E12">
-        <v>10.10865984696443</v>
+        <v>10.1086598469645</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.89555622309047</v>
+        <v>82.89555622309179</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.29378186528755</v>
+        <v>21.29378186528782</v>
       </c>
       <c r="K12">
-        <v>11.43651890511369</v>
+        <v>11.43651890511367</v>
       </c>
       <c r="L12">
-        <v>18.65011154860027</v>
+        <v>18.65011154860044</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.04999132309695</v>
+        <v>25.04999132309698</v>
       </c>
       <c r="C13">
-        <v>14.79158707836024</v>
+        <v>14.79158707836047</v>
       </c>
       <c r="D13">
-        <v>9.613858037847958</v>
+        <v>9.613858037848038</v>
       </c>
       <c r="E13">
-        <v>10.08558956328062</v>
+        <v>10.08558956328064</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.65053032658352</v>
+        <v>82.65053032658354</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.21993347222613</v>
+        <v>21.2199334722262</v>
       </c>
       <c r="K13">
-        <v>11.39958882166842</v>
+        <v>11.39958882166845</v>
       </c>
       <c r="L13">
         <v>18.58897213366784</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.76444928870833</v>
+        <v>24.76444928870829</v>
       </c>
       <c r="C14">
-        <v>14.61579519098482</v>
+        <v>14.61579519098503</v>
       </c>
       <c r="D14">
-        <v>9.511429349714332</v>
+        <v>9.511429349714252</v>
       </c>
       <c r="E14">
-        <v>10.01043402436874</v>
+        <v>10.01043402436867</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.85115415638938</v>
+        <v>81.85115415638899</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.9790987683463</v>
+        <v>20.97909876834633</v>
       </c>
       <c r="K14">
-        <v>11.27900149210482</v>
+        <v>11.27900149210485</v>
       </c>
       <c r="L14">
-        <v>18.38943394557484</v>
+        <v>18.38943394557481</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.58948637238234</v>
+        <v>24.58948637238233</v>
       </c>
       <c r="C15">
-        <v>14.5082660220579</v>
+        <v>14.50826602205776</v>
       </c>
       <c r="D15">
-        <v>9.448591556308532</v>
+        <v>9.448591556308546</v>
       </c>
       <c r="E15">
-        <v>9.964457460810742</v>
+        <v>9.96445746081066</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.36123388362839</v>
+        <v>81.36123388362793</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.83155957069131</v>
+        <v>20.83155957069123</v>
       </c>
       <c r="K15">
-        <v>11.20501454619686</v>
+        <v>11.20501454619684</v>
       </c>
       <c r="L15">
-        <v>18.26708095551922</v>
+        <v>18.26708095551924</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.58498899907961</v>
+        <v>23.58498899907949</v>
       </c>
       <c r="C16">
-        <v>13.89358263486401</v>
+        <v>13.89358263486416</v>
       </c>
       <c r="D16">
-        <v>9.08672138369557</v>
+        <v>9.086721383695595</v>
       </c>
       <c r="E16">
-        <v>9.701713198463715</v>
+        <v>9.701713198463697</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.54735409592777</v>
+        <v>78.54735409592786</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.98490922540154</v>
+        <v>19.98490922540145</v>
       </c>
       <c r="K16">
-        <v>10.77880938747853</v>
+        <v>10.77880938747858</v>
       </c>
       <c r="L16">
-        <v>17.56333496443532</v>
+        <v>17.56333496443529</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.96617535123515</v>
+        <v>22.96617535123511</v>
       </c>
       <c r="C17">
-        <v>13.51710215945166</v>
+        <v>13.5171021594518</v>
       </c>
       <c r="D17">
-        <v>8.862862340221104</v>
+        <v>8.862862340221154</v>
       </c>
       <c r="E17">
-        <v>9.54101831852546</v>
+        <v>9.541018318525452</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.81343355905527</v>
+        <v>76.81343355905474</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.46363807153497</v>
+        <v>19.46363807153501</v>
       </c>
       <c r="K17">
-        <v>10.51504850349591</v>
+        <v>10.51504850349589</v>
       </c>
       <c r="L17">
-        <v>17.12870071030578</v>
+        <v>17.12870071030575</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.60896107923091</v>
+        <v>22.60896107923099</v>
       </c>
       <c r="C18">
-        <v>13.30051091896771</v>
+        <v>13.3005109189674</v>
       </c>
       <c r="D18">
-        <v>8.733316727238842</v>
+        <v>8.733316727238792</v>
       </c>
       <c r="E18">
-        <v>9.448715122080893</v>
+        <v>9.448715122080859</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.81257150702393</v>
+        <v>75.81257150702345</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.16282005166237</v>
+        <v>19.16282005166238</v>
       </c>
       <c r="K18">
-        <v>10.36237860944797</v>
+        <v>10.36237860944789</v>
       </c>
       <c r="L18">
-        <v>16.87742367154751</v>
+        <v>16.8774236715475</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.48776357705447</v>
+        <v>22.48776357705458</v>
       </c>
       <c r="C19">
-        <v>13.22714449072595</v>
+        <v>13.22714449072606</v>
       </c>
       <c r="D19">
-        <v>8.689310467689621</v>
+        <v>8.689310467689728</v>
       </c>
       <c r="E19">
-        <v>9.417479528238804</v>
+        <v>9.417479528238793</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.47302349123358</v>
+        <v>75.47302349123338</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.06077028488265</v>
+        <v>19.06077028488274</v>
       </c>
       <c r="K19">
-        <v>10.31051176640347</v>
+        <v>10.31051176640348</v>
       </c>
       <c r="L19">
-        <v>16.79210547039984</v>
+        <v>16.79210547039988</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.03217536618634</v>
+        <v>23.03217536618637</v>
       </c>
       <c r="C20">
-        <v>13.55717849904155</v>
+        <v>13.5571784990417</v>
       </c>
       <c r="D20">
-        <v>8.886771862468137</v>
+        <v>8.886771862468251</v>
       </c>
       <c r="E20">
         <v>9.558110558237837</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.99836524124979</v>
+        <v>76.99836524124974</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.51922492510442</v>
+        <v>19.51922492510453</v>
       </c>
       <c r="K20">
-        <v>10.54322332971673</v>
+        <v>10.54322332971671</v>
       </c>
       <c r="L20">
-        <v>17.17509682939925</v>
+        <v>17.17509682939929</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.84833009100795</v>
+        <v>24.84833009100775</v>
       </c>
       <c r="C21">
-        <v>14.66739669673673</v>
+        <v>14.66739669673675</v>
       </c>
       <c r="D21">
-        <v>9.541534699839556</v>
+        <v>9.541534699839312</v>
       </c>
       <c r="E21">
-        <v>10.03249643670535</v>
+        <v>10.0324964367053</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.08600327574653</v>
+        <v>82.08600327574601</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.04984001194544</v>
+        <v>21.04984001194534</v>
       </c>
       <c r="K21">
-        <v>11.31444589410513</v>
+        <v>11.31444589410509</v>
       </c>
       <c r="L21">
-        <v>18.44806875599703</v>
+        <v>18.4480687559969</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.03165540800764</v>
+        <v>26.03165540800771</v>
       </c>
       <c r="C22">
-        <v>15.39887149582207</v>
+        <v>15.39887149582209</v>
       </c>
       <c r="D22">
-        <v>9.964820181907159</v>
+        <v>9.964820181907255</v>
       </c>
       <c r="E22">
-        <v>10.34498859221451</v>
+        <v>10.34498859221455</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.39651994095557</v>
+        <v>85.39651994095566</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.04839328972413</v>
+        <v>22.04839328972414</v>
       </c>
       <c r="K22">
-        <v>11.81262093857105</v>
+        <v>11.81262093857102</v>
       </c>
       <c r="L22">
-        <v>19.27360059187766</v>
+        <v>19.27360059187765</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.39998709697746</v>
+        <v>25.39998709697715</v>
       </c>
       <c r="C23">
-        <v>15.00757817570515</v>
+        <v>15.00757817570506</v>
       </c>
       <c r="D23">
-        <v>9.739197589160774</v>
+        <v>9.739197589160636</v>
       </c>
       <c r="E23">
-        <v>10.17790182766507</v>
+        <v>10.17790182766496</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.62999101030331</v>
+        <v>83.62999101030127</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.51521615769453</v>
+        <v>21.51521615769427</v>
       </c>
       <c r="K23">
-        <v>11.54712257107554</v>
+        <v>11.54712257107544</v>
       </c>
       <c r="L23">
-        <v>18.83330751727299</v>
+        <v>18.83330751727279</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.00234135548837</v>
+        <v>23.0023413554885</v>
       </c>
       <c r="C24">
-        <v>13.53906050975751</v>
+        <v>13.53906050975782</v>
       </c>
       <c r="D24">
-        <v>8.875965026963215</v>
+        <v>8.8759650269632</v>
       </c>
       <c r="E24">
-        <v>9.550382913023366</v>
+        <v>9.550382913023448</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.91477028289977</v>
+        <v>76.91477028289988</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.494097707351</v>
+        <v>19.49409770735118</v>
       </c>
       <c r="K24">
-        <v>10.53048872729481</v>
+        <v>10.53048872729479</v>
       </c>
       <c r="L24">
-        <v>17.15412555586915</v>
+        <v>17.15412555586921</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.36430059501176</v>
+        <v>20.36430059501185</v>
       </c>
       <c r="C25">
-        <v>11.95108122416884</v>
+        <v>11.95108122416892</v>
       </c>
       <c r="D25">
-        <v>7.913908243722894</v>
+        <v>7.913908243722855</v>
       </c>
       <c r="E25">
-        <v>8.877988730195224</v>
+        <v>8.877988730195247</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.53070120598241</v>
+        <v>69.53070120598233</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.2735615670765</v>
+        <v>17.27356156707662</v>
       </c>
       <c r="K25">
-        <v>9.505300474257094</v>
+        <v>9.505300474257101</v>
       </c>
       <c r="L25">
-        <v>15.29197661545357</v>
+        <v>15.29197661545363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34672573276119</v>
+        <v>18.34672573276123</v>
       </c>
       <c r="C2">
-        <v>10.75362429632056</v>
+        <v>10.7536242963206</v>
       </c>
       <c r="D2">
-        <v>7.169408115103415</v>
+        <v>7.16940811510346</v>
       </c>
       <c r="E2">
-        <v>8.382440251608713</v>
+        <v>8.382440251608793</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.91096438370462</v>
+        <v>63.91096438370486</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.57574868883445</v>
+        <v>15.57574868883452</v>
       </c>
       <c r="K2">
-        <v>8.863375630756122</v>
+        <v>8.863375630756156</v>
       </c>
       <c r="L2">
-        <v>13.85702853944268</v>
+        <v>13.85702853944271</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.92118318051302</v>
+        <v>16.92118318051301</v>
       </c>
       <c r="C3">
-        <v>9.91513124222206</v>
+        <v>9.915131242222261</v>
       </c>
       <c r="D3">
-        <v>6.638633625614139</v>
+        <v>6.638633625614189</v>
       </c>
       <c r="E3">
-        <v>8.045261362917389</v>
+        <v>8.045261362917277</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.96897249750637</v>
+        <v>59.96897249750642</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.3752670651827</v>
+        <v>14.37526706518277</v>
       </c>
       <c r="K3">
-        <v>8.427570275488428</v>
+        <v>8.427570275488399</v>
       </c>
       <c r="L3">
-        <v>12.83703716471631</v>
+        <v>12.83703716471637</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.01428012005341</v>
+        <v>16.01428012005347</v>
       </c>
       <c r="C4">
-        <v>9.384495116920547</v>
+        <v>9.384495116920624</v>
       </c>
       <c r="D4">
-        <v>6.298802228650163</v>
+        <v>6.298802228650146</v>
       </c>
       <c r="E4">
-        <v>7.837474060658532</v>
+        <v>7.837474060658598</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.47912092594007</v>
+        <v>57.47912092594029</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.61070606217664</v>
+        <v>13.61070606217671</v>
       </c>
       <c r="K4">
-        <v>8.159643029775159</v>
+        <v>8.159643029775211</v>
       </c>
       <c r="L4">
-        <v>12.18524624473881</v>
+        <v>12.18524624473882</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63640492697801</v>
+        <v>15.63640492697809</v>
       </c>
       <c r="C5">
-        <v>9.163961597903198</v>
+        <v>9.163961597903178</v>
       </c>
       <c r="D5">
-        <v>6.17774482218937</v>
+        <v>6.177744822189393</v>
       </c>
       <c r="E5">
-        <v>7.752617425502782</v>
+        <v>7.752617425502733</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.44676551080913</v>
+        <v>56.44676551080915</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.29186392485212</v>
+        <v>13.29186392485214</v>
       </c>
       <c r="K5">
-        <v>8.050419400124859</v>
+        <v>8.050419400124831</v>
       </c>
       <c r="L5">
-        <v>11.91295118190425</v>
+        <v>11.91295118190431</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57314826570468</v>
+        <v>15.57314826570451</v>
       </c>
       <c r="C6">
-        <v>9.127074051846531</v>
+        <v>9.12707405184662</v>
       </c>
       <c r="D6">
-        <v>6.157796874504225</v>
+        <v>6.157796874504226</v>
       </c>
       <c r="E6">
-        <v>7.738516684345881</v>
+        <v>7.738516684345869</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.27427070103816</v>
+        <v>56.27427070103786</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.2384708003043</v>
+        <v>13.23847080030422</v>
       </c>
       <c r="K6">
-        <v>8.032282325747765</v>
+        <v>8.032282325747751</v>
       </c>
       <c r="L6">
-        <v>11.86732571371977</v>
+        <v>11.86732571371969</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00921801292639</v>
+        <v>16.00921801292636</v>
       </c>
       <c r="C7">
-        <v>9.381538713962851</v>
+        <v>9.381538713963094</v>
       </c>
       <c r="D7">
-        <v>6.296900446101833</v>
+        <v>6.296900446101819</v>
       </c>
       <c r="E7">
-        <v>7.836330364697805</v>
+        <v>7.836330364697773</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.46527012796992</v>
+        <v>57.46527012796972</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.60643597321316</v>
+        <v>13.60643597321319</v>
       </c>
       <c r="K7">
-        <v>8.158170086106168</v>
+        <v>8.158170086106123</v>
       </c>
       <c r="L7">
-        <v>12.18160138063192</v>
+        <v>12.18160138063197</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.86152592062702</v>
+        <v>17.86152592062699</v>
       </c>
       <c r="C8">
-        <v>10.46758401814028</v>
+        <v>10.46758401814021</v>
       </c>
       <c r="D8">
-        <v>6.989205666814405</v>
+        <v>6.989205666814261</v>
       </c>
       <c r="E8">
-        <v>8.266337653789039</v>
+        <v>8.266337653788961</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.56594699338236</v>
+        <v>62.56594699338206</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.1672840607168</v>
+        <v>15.1672840607167</v>
       </c>
       <c r="K8">
-        <v>8.71319713257801</v>
+        <v>8.713197132577976</v>
       </c>
       <c r="L8">
-        <v>13.51045818802057</v>
+        <v>13.51045818802051</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.26285648729443</v>
+        <v>21.26285648729455</v>
       </c>
       <c r="C9">
-        <v>12.48895003271248</v>
+        <v>12.48895003271221</v>
       </c>
       <c r="D9">
-        <v>8.243037083090977</v>
+        <v>8.243037083091096</v>
       </c>
       <c r="E9">
-        <v>9.104348127396159</v>
+        <v>9.104348127396126</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.04311634989776</v>
+        <v>72.04311634989854</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.02969152409991</v>
+        <v>18.02969152409996</v>
       </c>
       <c r="K9">
-        <v>9.798884405753967</v>
+        <v>9.798884405753954</v>
       </c>
       <c r="L9">
-        <v>15.9279977051262</v>
+        <v>15.92799770512626</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.65544887004504</v>
+        <v>23.65544887004515</v>
       </c>
       <c r="C10">
-        <v>13.93655400250703</v>
+        <v>13.93655400250708</v>
       </c>
       <c r="D10">
-        <v>9.11216571001453</v>
+        <v>9.112165710014605</v>
       </c>
       <c r="E10">
-        <v>9.720070262899249</v>
+        <v>9.720070262899286</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.74477497596641</v>
+        <v>78.74477497596713</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.04427623026488</v>
+        <v>20.04427623026499</v>
       </c>
       <c r="K10">
         <v>10.80878423391492</v>
       </c>
       <c r="L10">
-        <v>17.61277060450657</v>
+        <v>17.61277060450664</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.73099540528121</v>
+        <v>24.73099540528147</v>
       </c>
       <c r="C11">
-        <v>14.59522417289544</v>
+        <v>14.59522417289586</v>
       </c>
       <c r="D11">
-        <v>9.499418853681941</v>
+        <v>9.499418853682021</v>
       </c>
       <c r="E11">
-        <v>10.00163858247176</v>
+        <v>10.00163858247189</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.75748477694941</v>
+        <v>81.75748477695068</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.95088673406902</v>
+        <v>20.95088673406932</v>
       </c>
       <c r="K11">
-        <v>11.26486053930448</v>
+        <v>11.26486053930457</v>
       </c>
       <c r="L11">
-        <v>18.36604454315208</v>
+        <v>18.36604454315228</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.13753382577647</v>
+        <v>25.13753382577624</v>
       </c>
       <c r="C12">
-        <v>14.84555783691374</v>
+        <v>14.84555783691348</v>
       </c>
       <c r="D12">
-        <v>9.645230233766359</v>
+        <v>9.645230233766263</v>
       </c>
       <c r="E12">
-        <v>10.1086598469645</v>
+        <v>10.10865984696443</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.89555622309179</v>
+        <v>82.89555622309047</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.29378186528782</v>
+        <v>21.29378186528755</v>
       </c>
       <c r="K12">
-        <v>11.43651890511367</v>
+        <v>11.43651890511369</v>
       </c>
       <c r="L12">
-        <v>18.65011154860044</v>
+        <v>18.65011154860027</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.04999132309698</v>
+        <v>25.04999132309695</v>
       </c>
       <c r="C13">
-        <v>14.79158707836047</v>
+        <v>14.79158707836024</v>
       </c>
       <c r="D13">
-        <v>9.613858037848038</v>
+        <v>9.613858037847958</v>
       </c>
       <c r="E13">
-        <v>10.08558956328064</v>
+        <v>10.08558956328062</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.65053032658354</v>
+        <v>82.65053032658352</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.2199334722262</v>
+        <v>21.21993347222613</v>
       </c>
       <c r="K13">
-        <v>11.39958882166845</v>
+        <v>11.39958882166842</v>
       </c>
       <c r="L13">
         <v>18.58897213366784</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.76444928870829</v>
+        <v>24.76444928870833</v>
       </c>
       <c r="C14">
-        <v>14.61579519098503</v>
+        <v>14.61579519098482</v>
       </c>
       <c r="D14">
-        <v>9.511429349714252</v>
+        <v>9.511429349714332</v>
       </c>
       <c r="E14">
-        <v>10.01043402436867</v>
+        <v>10.01043402436874</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.85115415638899</v>
+        <v>81.85115415638938</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.97909876834633</v>
+        <v>20.9790987683463</v>
       </c>
       <c r="K14">
-        <v>11.27900149210485</v>
+        <v>11.27900149210482</v>
       </c>
       <c r="L14">
-        <v>18.38943394557481</v>
+        <v>18.38943394557484</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.58948637238233</v>
+        <v>24.58948637238234</v>
       </c>
       <c r="C15">
-        <v>14.50826602205776</v>
+        <v>14.5082660220579</v>
       </c>
       <c r="D15">
-        <v>9.448591556308546</v>
+        <v>9.448591556308532</v>
       </c>
       <c r="E15">
-        <v>9.96445746081066</v>
+        <v>9.964457460810742</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.36123388362793</v>
+        <v>81.36123388362839</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.83155957069123</v>
+        <v>20.83155957069131</v>
       </c>
       <c r="K15">
-        <v>11.20501454619684</v>
+        <v>11.20501454619686</v>
       </c>
       <c r="L15">
-        <v>18.26708095551924</v>
+        <v>18.26708095551922</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.58498899907949</v>
+        <v>23.58498899907961</v>
       </c>
       <c r="C16">
-        <v>13.89358263486416</v>
+        <v>13.89358263486401</v>
       </c>
       <c r="D16">
-        <v>9.086721383695595</v>
+        <v>9.08672138369557</v>
       </c>
       <c r="E16">
-        <v>9.701713198463697</v>
+        <v>9.701713198463715</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.54735409592786</v>
+        <v>78.54735409592777</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.98490922540145</v>
+        <v>19.98490922540154</v>
       </c>
       <c r="K16">
-        <v>10.77880938747858</v>
+        <v>10.77880938747853</v>
       </c>
       <c r="L16">
-        <v>17.56333496443529</v>
+        <v>17.56333496443532</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.96617535123511</v>
+        <v>22.96617535123515</v>
       </c>
       <c r="C17">
-        <v>13.5171021594518</v>
+        <v>13.51710215945166</v>
       </c>
       <c r="D17">
-        <v>8.862862340221154</v>
+        <v>8.862862340221104</v>
       </c>
       <c r="E17">
-        <v>9.541018318525452</v>
+        <v>9.54101831852546</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.81343355905474</v>
+        <v>76.81343355905527</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.46363807153501</v>
+        <v>19.46363807153497</v>
       </c>
       <c r="K17">
-        <v>10.51504850349589</v>
+        <v>10.51504850349591</v>
       </c>
       <c r="L17">
-        <v>17.12870071030575</v>
+        <v>17.12870071030578</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.60896107923099</v>
+        <v>22.60896107923091</v>
       </c>
       <c r="C18">
-        <v>13.3005109189674</v>
+        <v>13.30051091896771</v>
       </c>
       <c r="D18">
-        <v>8.733316727238792</v>
+        <v>8.733316727238842</v>
       </c>
       <c r="E18">
-        <v>9.448715122080859</v>
+        <v>9.448715122080893</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.81257150702345</v>
+        <v>75.81257150702393</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.16282005166238</v>
+        <v>19.16282005166237</v>
       </c>
       <c r="K18">
-        <v>10.36237860944789</v>
+        <v>10.36237860944797</v>
       </c>
       <c r="L18">
-        <v>16.8774236715475</v>
+        <v>16.87742367154751</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.48776357705458</v>
+        <v>22.48776357705447</v>
       </c>
       <c r="C19">
-        <v>13.22714449072606</v>
+        <v>13.22714449072595</v>
       </c>
       <c r="D19">
-        <v>8.689310467689728</v>
+        <v>8.689310467689621</v>
       </c>
       <c r="E19">
-        <v>9.417479528238793</v>
+        <v>9.417479528238804</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.47302349123338</v>
+        <v>75.47302349123358</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.06077028488274</v>
+        <v>19.06077028488265</v>
       </c>
       <c r="K19">
-        <v>10.31051176640348</v>
+        <v>10.31051176640347</v>
       </c>
       <c r="L19">
-        <v>16.79210547039988</v>
+        <v>16.79210547039984</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.03217536618637</v>
+        <v>23.03217536618634</v>
       </c>
       <c r="C20">
-        <v>13.5571784990417</v>
+        <v>13.55717849904155</v>
       </c>
       <c r="D20">
-        <v>8.886771862468251</v>
+        <v>8.886771862468137</v>
       </c>
       <c r="E20">
         <v>9.558110558237837</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.99836524124974</v>
+        <v>76.99836524124979</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.51922492510453</v>
+        <v>19.51922492510442</v>
       </c>
       <c r="K20">
-        <v>10.54322332971671</v>
+        <v>10.54322332971673</v>
       </c>
       <c r="L20">
-        <v>17.17509682939929</v>
+        <v>17.17509682939925</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.84833009100775</v>
+        <v>24.84833009100795</v>
       </c>
       <c r="C21">
-        <v>14.66739669673675</v>
+        <v>14.66739669673673</v>
       </c>
       <c r="D21">
-        <v>9.541534699839312</v>
+        <v>9.541534699839556</v>
       </c>
       <c r="E21">
-        <v>10.0324964367053</v>
+        <v>10.03249643670535</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.08600327574601</v>
+        <v>82.08600327574653</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.04984001194534</v>
+        <v>21.04984001194544</v>
       </c>
       <c r="K21">
-        <v>11.31444589410509</v>
+        <v>11.31444589410513</v>
       </c>
       <c r="L21">
-        <v>18.4480687559969</v>
+        <v>18.44806875599703</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.03165540800771</v>
+        <v>26.03165540800764</v>
       </c>
       <c r="C22">
-        <v>15.39887149582209</v>
+        <v>15.39887149582207</v>
       </c>
       <c r="D22">
-        <v>9.964820181907255</v>
+        <v>9.964820181907159</v>
       </c>
       <c r="E22">
-        <v>10.34498859221455</v>
+        <v>10.34498859221451</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.39651994095566</v>
+        <v>85.39651994095557</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.04839328972414</v>
+        <v>22.04839328972413</v>
       </c>
       <c r="K22">
-        <v>11.81262093857102</v>
+        <v>11.81262093857105</v>
       </c>
       <c r="L22">
-        <v>19.27360059187765</v>
+        <v>19.27360059187766</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.39998709697715</v>
+        <v>25.39998709697746</v>
       </c>
       <c r="C23">
-        <v>15.00757817570506</v>
+        <v>15.00757817570515</v>
       </c>
       <c r="D23">
-        <v>9.739197589160636</v>
+        <v>9.739197589160774</v>
       </c>
       <c r="E23">
-        <v>10.17790182766496</v>
+        <v>10.17790182766507</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.62999101030127</v>
+        <v>83.62999101030331</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.51521615769427</v>
+        <v>21.51521615769453</v>
       </c>
       <c r="K23">
-        <v>11.54712257107544</v>
+        <v>11.54712257107554</v>
       </c>
       <c r="L23">
-        <v>18.83330751727279</v>
+        <v>18.83330751727299</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.0023413554885</v>
+        <v>23.00234135548837</v>
       </c>
       <c r="C24">
-        <v>13.53906050975782</v>
+        <v>13.53906050975751</v>
       </c>
       <c r="D24">
-        <v>8.8759650269632</v>
+        <v>8.875965026963215</v>
       </c>
       <c r="E24">
-        <v>9.550382913023448</v>
+        <v>9.550382913023366</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.91477028289988</v>
+        <v>76.91477028289977</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.49409770735118</v>
+        <v>19.494097707351</v>
       </c>
       <c r="K24">
-        <v>10.53048872729479</v>
+        <v>10.53048872729481</v>
       </c>
       <c r="L24">
-        <v>17.15412555586921</v>
+        <v>17.15412555586915</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.36430059501185</v>
+        <v>20.36430059501176</v>
       </c>
       <c r="C25">
-        <v>11.95108122416892</v>
+        <v>11.95108122416884</v>
       </c>
       <c r="D25">
-        <v>7.913908243722855</v>
+        <v>7.913908243722894</v>
       </c>
       <c r="E25">
-        <v>8.877988730195247</v>
+        <v>8.877988730195224</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.53070120598233</v>
+        <v>69.53070120598241</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.27356156707662</v>
+        <v>17.2735615670765</v>
       </c>
       <c r="K25">
-        <v>9.505300474257101</v>
+        <v>9.505300474257094</v>
       </c>
       <c r="L25">
-        <v>15.29197661545363</v>
+        <v>15.29197661545357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34672573276123</v>
+        <v>18.34386856671025</v>
       </c>
       <c r="C2">
-        <v>10.7536242963206</v>
+        <v>10.74912845402182</v>
       </c>
       <c r="D2">
-        <v>7.16940811510346</v>
+        <v>7.168970021285856</v>
       </c>
       <c r="E2">
-        <v>8.382440251608793</v>
+        <v>8.380622240353961</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.91096438370486</v>
+        <v>63.08571786423116</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.89900451881962</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.57574868883452</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.863375630756156</v>
+        <v>15.57217922502559</v>
       </c>
       <c r="L2">
-        <v>13.85702853944271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.863177194849918</v>
+      </c>
+      <c r="M2">
+        <v>13.85515969611732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.92118318051301</v>
+        <v>16.91916374807857</v>
       </c>
       <c r="C3">
-        <v>9.915131242222261</v>
+        <v>9.911718169740517</v>
       </c>
       <c r="D3">
-        <v>6.638633625614189</v>
+        <v>6.638324537977115</v>
       </c>
       <c r="E3">
-        <v>8.045261362917277</v>
+        <v>8.043797754355603</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.96897249750642</v>
+        <v>58.98179836033995</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.96035631986368</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.37526706518277</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.427570275488399</v>
+        <v>14.37261109111703</v>
       </c>
       <c r="L3">
-        <v>12.83703716471637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.427457791423343</v>
+      </c>
+      <c r="M3">
+        <v>12.83564312624235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.01428012005347</v>
+        <v>16.01272319136799</v>
       </c>
       <c r="C4">
-        <v>9.384495116920624</v>
+        <v>9.381716976553314</v>
       </c>
       <c r="D4">
-        <v>6.298802228650146</v>
+        <v>6.298562907335659</v>
       </c>
       <c r="E4">
-        <v>7.837474060658598</v>
+        <v>7.836236432553004</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.47912092594029</v>
+        <v>56.38036098132245</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.47262771405583</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.61070606217671</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.159643029775211</v>
+        <v>13.60857451040945</v>
       </c>
       <c r="L4">
-        <v>12.18524624473882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.159571738655465</v>
+      </c>
+      <c r="M4">
+        <v>12.18412399311481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63640492697809</v>
+        <v>15.63502497062166</v>
       </c>
       <c r="C5">
-        <v>9.163961597903178</v>
+        <v>9.161436477934862</v>
       </c>
       <c r="D5">
-        <v>6.177744822189393</v>
+        <v>6.177595332604287</v>
       </c>
       <c r="E5">
-        <v>7.752617425502733</v>
+        <v>7.751474359060509</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.44676551080915</v>
+        <v>55.29932515034286</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.44116141880842</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.29186392485214</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.050419400124831</v>
+        <v>13.28993859711575</v>
       </c>
       <c r="L5">
-        <v>11.91295118190431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.050362382383728</v>
+      </c>
+      <c r="M5">
+        <v>11.91193578218766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57314826570451</v>
+        <v>15.57179703829463</v>
       </c>
       <c r="C6">
-        <v>9.12707405184662</v>
+        <v>9.124590647797014</v>
       </c>
       <c r="D6">
-        <v>6.157796874504226</v>
+        <v>6.157650930458669</v>
       </c>
       <c r="E6">
-        <v>7.738516684345869</v>
+        <v>7.737389478360019</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.27427070103786</v>
+        <v>55.11854861216585</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>56.26881587465131</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.23847080030422</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.032282325747751</v>
+        <v>13.23657930761583</v>
       </c>
       <c r="L6">
-        <v>11.86732571371969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.03222753670738</v>
+      </c>
+      <c r="M6">
+        <v>11.86632784875197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00921801292636</v>
+        <v>16.00766351577471</v>
       </c>
       <c r="C7">
-        <v>9.381538713963094</v>
+        <v>9.378764006895279</v>
       </c>
       <c r="D7">
-        <v>6.296900446101819</v>
+        <v>6.296661489216882</v>
       </c>
       <c r="E7">
-        <v>7.836330364697773</v>
+        <v>7.835094001444603</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.46527012796972</v>
+        <v>56.36586685943533</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.45878880178297</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.60643597321319</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>8.158170086106123</v>
+        <v>13.60430723094173</v>
       </c>
       <c r="L7">
-        <v>12.18160138063197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.158098997179403</v>
+      </c>
+      <c r="M7">
+        <v>12.18048058457638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.86152592062699</v>
+        <v>17.85896942952868</v>
       </c>
       <c r="C8">
-        <v>10.46758401814021</v>
+        <v>10.46346889287792</v>
       </c>
       <c r="D8">
-        <v>6.989205666814261</v>
+        <v>6.988814289635559</v>
       </c>
       <c r="E8">
-        <v>8.266337653788961</v>
+        <v>8.264640349017135</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.56594699338206</v>
+        <v>61.68730540107797</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.55512954180911</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.1672840607167</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>8.713197132577976</v>
+        <v>15.16403825425029</v>
       </c>
       <c r="L8">
-        <v>13.51045818802051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.713031000642884</v>
+      </c>
+      <c r="M8">
+        <v>13.50875785338668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.26285648729455</v>
+        <v>21.25782837988362</v>
       </c>
       <c r="C9">
-        <v>12.48895003271221</v>
+        <v>12.48186936827791</v>
       </c>
       <c r="D9">
-        <v>8.243037083091096</v>
+        <v>8.242247942955146</v>
       </c>
       <c r="E9">
-        <v>9.104348127396126</v>
+        <v>9.101791806374431</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.04311634989854</v>
+        <v>71.50692056346163</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.02402652707536</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.02969152409996</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>9.798884405753954</v>
+        <v>18.02386914154184</v>
       </c>
       <c r="L9">
-        <v>15.92799770512626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.798417058202178</v>
+      </c>
+      <c r="M9">
+        <v>15.92494430380068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.65544887004515</v>
+        <v>23.64811088767913</v>
       </c>
       <c r="C10">
-        <v>13.93655400250708</v>
+        <v>13.92690815240113</v>
       </c>
       <c r="D10">
-        <v>9.112165710014605</v>
+        <v>9.110978979621304</v>
       </c>
       <c r="E10">
-        <v>9.720070262899286</v>
+        <v>9.716869895305321</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.74477497596713</v>
+        <v>78.41234343164045</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>78.71920688316538</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.04427623026499</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>10.80878423391492</v>
+        <v>20.03614595092171</v>
       </c>
       <c r="L10">
-        <v>17.61277060450664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.80758544773925</v>
+      </c>
+      <c r="M10">
+        <v>17.60848041607906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.73099540528147</v>
+        <v>24.7224366184841</v>
       </c>
       <c r="C11">
-        <v>14.59522417289586</v>
+        <v>14.58426921821215</v>
       </c>
       <c r="D11">
-        <v>9.499418853682021</v>
+        <v>9.498013262620921</v>
       </c>
       <c r="E11">
-        <v>10.00163858247189</v>
+        <v>9.998129229570454</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.75748477695068</v>
+        <v>81.50871485418328</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>81.72872029155756</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.95088673406932</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>11.26486053930457</v>
+        <v>20.94155750131068</v>
       </c>
       <c r="L11">
-        <v>18.36604454315228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.2634377022136</v>
+      </c>
+      <c r="M11">
+        <v>18.36110264806008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.13753382577624</v>
+        <v>25.12848067370538</v>
       </c>
       <c r="C12">
-        <v>14.84555783691348</v>
+        <v>14.83407979589786</v>
       </c>
       <c r="D12">
-        <v>9.645230233766263</v>
+        <v>9.643734455562006</v>
       </c>
       <c r="E12">
-        <v>10.10865984696443</v>
+        <v>10.10502961262811</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.89555622309047</v>
+        <v>82.67726868603445</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>82.86552681306492</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21.29378186528755</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>11.43651890511369</v>
+        <v>21.28397010705865</v>
       </c>
       <c r="L12">
-        <v>18.65011154860027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.43500356048425</v>
+      </c>
+      <c r="M12">
+        <v>18.64490567138747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.04999132309695</v>
+        <v>25.04104621808341</v>
       </c>
       <c r="C13">
-        <v>14.79158707836024</v>
+        <v>14.78022304501556</v>
       </c>
       <c r="D13">
-        <v>9.613858037847958</v>
+        <v>9.612382044693158</v>
       </c>
       <c r="E13">
-        <v>10.08558956328062</v>
+        <v>10.0819855660942</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.65053032658352</v>
+        <v>82.42572962823614</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>82.62077612646598</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>21.21993347222613</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>11.39958882166842</v>
+        <v>21.21022704108046</v>
       </c>
       <c r="L13">
-        <v>18.58897213366784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.39809377979125</v>
+      </c>
+      <c r="M13">
+        <v>18.58382396078088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.76444928870833</v>
+        <v>24.7558505260917</v>
       </c>
       <c r="C14">
-        <v>14.61579519098482</v>
+        <v>14.60479779770897</v>
       </c>
       <c r="D14">
-        <v>9.511429349714332</v>
+        <v>9.510016498312455</v>
       </c>
       <c r="E14">
-        <v>10.01043402436874</v>
+        <v>10.00691481504903</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.85115415638938</v>
+        <v>81.60491550319429</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>81.82228682529312</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.9790987683463</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>11.27900149210482</v>
+        <v>20.96973045833259</v>
       </c>
       <c r="L14">
-        <v>18.38943394557484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.27757121165422</v>
+      </c>
+      <c r="M14">
+        <v>18.38447070764867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.58948637238234</v>
+        <v>24.58109530683141</v>
       </c>
       <c r="C15">
-        <v>14.5082660220579</v>
+        <v>14.49748940009949</v>
       </c>
       <c r="D15">
-        <v>9.448591556308532</v>
+        <v>9.447216363328231</v>
       </c>
       <c r="E15">
-        <v>9.964457460810742</v>
+        <v>9.960989626218293</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.36123388362839</v>
+        <v>81.10171066385503</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>81.33290203338325</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.83155957069131</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>11.20501454619686</v>
+        <v>20.82239440686173</v>
       </c>
       <c r="L15">
-        <v>18.26708095551922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.2036228661361</v>
+      </c>
+      <c r="M15">
+        <v>18.26222860070863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.58498899907961</v>
+        <v>23.57772678248282</v>
       </c>
       <c r="C16">
-        <v>13.89358263486401</v>
+        <v>13.88401893471451</v>
       </c>
       <c r="D16">
-        <v>9.08672138369557</v>
+        <v>9.085548047997063</v>
       </c>
       <c r="E16">
-        <v>9.701713198463715</v>
+        <v>9.698532578423864</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.54735409592777</v>
+        <v>78.20928204234392</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>78.52198840567891</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.98490922540154</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>10.77880938747853</v>
+        <v>19.97685374732594</v>
       </c>
       <c r="L16">
-        <v>17.56333496443532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.77762429225409</v>
+      </c>
+      <c r="M16">
+        <v>17.55908523134601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.96617535123515</v>
+        <v>22.95955742345976</v>
       </c>
       <c r="C17">
-        <v>13.51710215945166</v>
+        <v>13.50824186088471</v>
       </c>
       <c r="D17">
-        <v>8.862862340221104</v>
+        <v>8.861801977990599</v>
       </c>
       <c r="E17">
-        <v>9.54101831852546</v>
+        <v>9.538008825387005</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.81343355905527</v>
+        <v>76.42493450267111</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>76.78981200566466</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.46363807153497</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>10.51504850349591</v>
+        <v>19.45622081469256</v>
       </c>
       <c r="L17">
-        <v>17.12870071030578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.51397877598016</v>
+      </c>
+      <c r="M17">
+        <v>17.1247951568035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.60896107923091</v>
+        <v>22.60269830212758</v>
       </c>
       <c r="C18">
-        <v>13.30051091896771</v>
+        <v>13.29204233258294</v>
       </c>
       <c r="D18">
-        <v>8.733316727238842</v>
+        <v>8.732317908128024</v>
       </c>
       <c r="E18">
-        <v>9.448715122080893</v>
+        <v>9.445802668251609</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.81257150702393</v>
+        <v>75.39421253132818</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>75.78993103854647</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.16282005166237</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>10.36237860944797</v>
+        <v>19.15575638285306</v>
       </c>
       <c r="L18">
-        <v>16.87742367154751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.36137164785398</v>
+      </c>
+      <c r="M18">
+        <v>16.8737080266199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.48776357705447</v>
+        <v>22.48161859139631</v>
       </c>
       <c r="C19">
-        <v>13.22714449072595</v>
+        <v>13.21880649837366</v>
       </c>
       <c r="D19">
-        <v>8.689310467689621</v>
+        <v>8.688331942416266</v>
       </c>
       <c r="E19">
-        <v>9.417479528238804</v>
+        <v>9.414599731967774</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.47302349123358</v>
+        <v>75.04440434251647</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.4507118887494</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19.06077028488265</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>10.31051176640347</v>
+        <v>19.05382419630073</v>
       </c>
       <c r="L19">
-        <v>16.79210547039984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.30952548876733</v>
+      </c>
+      <c r="M19">
+        <v>16.78845285318485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.03217536618634</v>
+        <v>23.02549049675152</v>
       </c>
       <c r="C20">
-        <v>13.55717849904155</v>
+        <v>13.54824469696452</v>
       </c>
       <c r="D20">
-        <v>8.886771862468137</v>
+        <v>8.885699841071755</v>
       </c>
       <c r="E20">
-        <v>9.558110558237837</v>
+        <v>9.555083001866352</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.99836524124979</v>
+        <v>76.61532203484394</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>76.97456042619018</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.51922492510442</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>10.54322332971673</v>
+        <v>19.51174116978118</v>
       </c>
       <c r="L20">
-        <v>17.17509682939925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.5421417047751</v>
+      </c>
+      <c r="M20">
+        <v>17.17115549824755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.84833009100795</v>
+        <v>24.83963054361524</v>
       </c>
       <c r="C21">
-        <v>14.66739669673673</v>
+        <v>14.65629242131532</v>
       </c>
       <c r="D21">
-        <v>9.541534699839556</v>
+        <v>9.54010351852806</v>
       </c>
       <c r="E21">
-        <v>10.03249643670535</v>
+        <v>10.02895244348153</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.08600327574653</v>
+        <v>81.84609322519093</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>82.05687710716299</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>21.04984001194544</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>11.31444589410513</v>
+        <v>21.04037322954165</v>
       </c>
       <c r="L21">
-        <v>18.44806875599703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.3129968187099</v>
+      </c>
+      <c r="M21">
+        <v>18.44305170733452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.03165540800764</v>
+        <v>26.02144652941422</v>
       </c>
       <c r="C22">
-        <v>15.39887149582207</v>
+        <v>15.38618417531174</v>
       </c>
       <c r="D22">
-        <v>9.964820181907159</v>
+        <v>9.963110274473452</v>
       </c>
       <c r="E22">
-        <v>10.34498859221451</v>
+        <v>10.34108333086366</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.39651994095557</v>
+        <v>85.24321293175558</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>85.36358476781149</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.04839328972413</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>11.81262093857105</v>
+        <v>22.03745909805017</v>
       </c>
       <c r="L22">
-        <v>19.27360059187766</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>11.81088556416647</v>
+      </c>
+      <c r="M22">
+        <v>19.26777701272682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.39998709697746</v>
+        <v>25.39060466926215</v>
       </c>
       <c r="C23">
-        <v>15.00757817570515</v>
+        <v>14.99575374078767</v>
       </c>
       <c r="D23">
-        <v>9.739197589160774</v>
+        <v>9.737641264904228</v>
       </c>
       <c r="E23">
-        <v>10.17790182766507</v>
+        <v>10.17419222439106</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.62999101030331</v>
+        <v>83.43106589339838</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>83.59912690293912</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.51521615769453</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>11.54712257107554</v>
+        <v>21.50508384696206</v>
       </c>
       <c r="L23">
-        <v>18.83330751727299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.5455450665742</v>
+      </c>
+      <c r="M23">
+        <v>18.82792574553241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.00234135548837</v>
+        <v>22.9956867973708</v>
       </c>
       <c r="C24">
-        <v>13.53906050975751</v>
+        <v>13.53015997763286</v>
       </c>
       <c r="D24">
-        <v>8.875965026963215</v>
+        <v>8.874898287157212</v>
       </c>
       <c r="E24">
-        <v>9.550382913023366</v>
+        <v>9.547363527114154</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.91477028289977</v>
+        <v>76.52926320037786</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>76.89104838652966</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.494097707351</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>10.53048872729481</v>
+        <v>19.48664405702396</v>
       </c>
       <c r="L24">
-        <v>17.15412555586915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.52941249213247</v>
+      </c>
+      <c r="M24">
+        <v>17.15020042429251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.36430059501176</v>
+        <v>20.36001122142601</v>
       </c>
       <c r="C25">
-        <v>11.95108122416884</v>
+        <v>11.94485487692467</v>
       </c>
       <c r="D25">
-        <v>7.913908243722894</v>
+        <v>7.913241196465655</v>
       </c>
       <c r="E25">
-        <v>8.877988730195224</v>
+        <v>8.875663507535013</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.53070120598241</v>
+        <v>68.91075189007078</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.51387425158178</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.2735615670765</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>9.505300474257094</v>
+        <v>17.26849322730184</v>
       </c>
       <c r="L25">
-        <v>15.29197661545357</v>
+        <v>9.504930651153728</v>
+      </c>
+      <c r="M25">
+        <v>15.28932211902499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34386856671025</v>
+        <v>26.53562098156959</v>
       </c>
       <c r="C2">
-        <v>10.74912845402182</v>
+        <v>19.60308194299744</v>
       </c>
       <c r="D2">
-        <v>7.168970021285856</v>
+        <v>9.679093792297715</v>
       </c>
       <c r="E2">
-        <v>8.380622240353961</v>
+        <v>8.814492940454995</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.08571786423116</v>
+        <v>2.100899851380731</v>
       </c>
       <c r="H2">
-        <v>63.89900451881962</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.72050384866597</v>
       </c>
       <c r="K2">
-        <v>15.57217922502559</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.863177194849918</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.85515969611732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>19.68409028223964</v>
+      </c>
+      <c r="N2">
+        <v>15.39176267398694</v>
+      </c>
+      <c r="O2">
+        <v>36.00741716761168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.91916374807857</v>
+        <v>24.84289128922764</v>
       </c>
       <c r="C3">
-        <v>9.911718169740517</v>
+        <v>18.27843599637742</v>
       </c>
       <c r="D3">
-        <v>6.638324537977115</v>
+        <v>9.404422742492184</v>
       </c>
       <c r="E3">
-        <v>8.043797754355603</v>
+        <v>8.708025814635617</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.98179836033995</v>
+        <v>2.115326796691144</v>
       </c>
       <c r="H3">
-        <v>59.96035631986368</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.76292910237641</v>
       </c>
       <c r="K3">
-        <v>14.37261109111703</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.427457791423343</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.83564312624235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>18.75850774744467</v>
+      </c>
+      <c r="N3">
+        <v>15.53517199865542</v>
+      </c>
+      <c r="O3">
+        <v>34.65817668272767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.01272319136799</v>
+        <v>23.77439028391312</v>
       </c>
       <c r="C4">
-        <v>9.381716976553314</v>
+        <v>17.43919933516117</v>
       </c>
       <c r="D4">
-        <v>6.298562907335659</v>
+        <v>9.241109269939097</v>
       </c>
       <c r="E4">
-        <v>7.836236432553004</v>
+        <v>8.648690869329764</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.38036098132245</v>
+        <v>2.124327324161546</v>
       </c>
       <c r="H4">
-        <v>57.47262771405583</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.789785220025085</v>
       </c>
       <c r="K4">
-        <v>13.60857451040945</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.159571738655465</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.18412399311481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>18.18875620261734</v>
+      </c>
+      <c r="N4">
+        <v>15.62917378198232</v>
+      </c>
+      <c r="O4">
+        <v>33.84660773073179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.63502497062166</v>
+        <v>23.33176925250332</v>
       </c>
       <c r="C5">
-        <v>9.161436477934862</v>
+        <v>17.09070179304826</v>
       </c>
       <c r="D5">
-        <v>6.177595332604287</v>
+        <v>9.175893208276086</v>
       </c>
       <c r="E5">
-        <v>7.751474359060509</v>
+        <v>8.625967879265511</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.29932515034286</v>
+        <v>2.128036101180268</v>
       </c>
       <c r="H5">
-        <v>56.44116141880842</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.800941581760218</v>
       </c>
       <c r="K5">
-        <v>13.28993859711575</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.050362382383728</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.91193578218766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17.9563804793936</v>
+      </c>
+      <c r="N5">
+        <v>15.66889786076464</v>
+      </c>
+      <c r="O5">
+        <v>33.52015657551559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57179703829463</v>
+        <v>23.25784381106244</v>
       </c>
       <c r="C6">
-        <v>9.124590647797014</v>
+        <v>17.03244329698214</v>
       </c>
       <c r="D6">
-        <v>6.157650930458669</v>
+        <v>9.16514473014157</v>
       </c>
       <c r="E6">
-        <v>7.737389478360019</v>
+        <v>8.622280973429978</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.11854861216585</v>
+        <v>2.128654558596415</v>
       </c>
       <c r="H6">
-        <v>56.26881587465131</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.802807167215143</v>
       </c>
       <c r="K6">
-        <v>13.23657930761583</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.03222753670738</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.86632784875197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17.91778864213063</v>
+      </c>
+      <c r="N6">
+        <v>15.67557754874208</v>
+      </c>
+      <c r="O6">
+        <v>33.46620924721105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.00766351577471</v>
+        <v>23.76844982464062</v>
       </c>
       <c r="C7">
-        <v>9.378764006895279</v>
+        <v>17.43452562563386</v>
       </c>
       <c r="D7">
-        <v>6.296661489216882</v>
+        <v>9.240224339382877</v>
       </c>
       <c r="E7">
-        <v>7.835094001444603</v>
+        <v>8.648378600797416</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.36586685943533</v>
+        <v>2.124377169565956</v>
       </c>
       <c r="H7">
-        <v>57.45878880178297</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.789934807296257</v>
       </c>
       <c r="K7">
-        <v>13.60430723094173</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.158098997179403</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.18048058457638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18.18562284262166</v>
+      </c>
+      <c r="N7">
+        <v>15.62970387052871</v>
+      </c>
+      <c r="O7">
+        <v>33.8421877348083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.85896942952868</v>
+        <v>25.95806353695443</v>
       </c>
       <c r="C8">
-        <v>10.46346889287792</v>
+        <v>19.15169959057686</v>
       </c>
       <c r="D8">
-        <v>6.988814289635559</v>
+        <v>9.583273606257004</v>
       </c>
       <c r="E8">
-        <v>8.264640349017135</v>
+        <v>8.77649218585695</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.68730540107797</v>
+        <v>2.105848026682835</v>
       </c>
       <c r="H8">
-        <v>62.55512954180911</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.73497054004944</v>
       </c>
       <c r="K8">
-        <v>15.16403825425029</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.713031000642884</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.50875785338668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19.36532892379647</v>
+      </c>
+      <c r="N8">
+        <v>15.43992531361151</v>
+      </c>
+      <c r="O8">
+        <v>35.53869628079067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.25782837988362</v>
+        <v>30.16157314788652</v>
       </c>
       <c r="C9">
-        <v>12.48186936827791</v>
+        <v>22.3860558262121</v>
       </c>
       <c r="D9">
-        <v>8.242247942955146</v>
+        <v>10.29917353380269</v>
       </c>
       <c r="E9">
-        <v>9.101791806374431</v>
+        <v>9.07861827434529</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.50692056346163</v>
+        <v>2.070374430679128</v>
       </c>
       <c r="H9">
-        <v>72.02402652707536</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.633113315199741</v>
       </c>
       <c r="K9">
-        <v>18.02386914154184</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.798417058202178</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.92494430380068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.66341055215863</v>
+      </c>
+      <c r="N9">
+        <v>15.11912361583636</v>
+      </c>
+      <c r="O9">
+        <v>39.00196075354656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.64811088767913</v>
+        <v>33.2226677999675</v>
       </c>
       <c r="C10">
-        <v>13.92690815240113</v>
+        <v>24.68910927025492</v>
       </c>
       <c r="D10">
-        <v>9.110978979621304</v>
+        <v>10.85388201731061</v>
       </c>
       <c r="E10">
-        <v>9.716869895305321</v>
+        <v>9.336319018440411</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.41234343164045</v>
+        <v>2.044403481035209</v>
       </c>
       <c r="H10">
-        <v>78.71920688316538</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.561137446785877</v>
       </c>
       <c r="K10">
-        <v>20.03614595092171</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10.80758544773925</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.60848041607906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.34280869202015</v>
+      </c>
+      <c r="N10">
+        <v>14.92174112621444</v>
+      </c>
+      <c r="O10">
+        <v>41.64060597860534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.7224366184841</v>
+        <v>34.58041876692189</v>
       </c>
       <c r="C11">
-        <v>14.58426921821215</v>
+        <v>25.71236670635849</v>
       </c>
       <c r="D11">
-        <v>9.498013262620921</v>
+        <v>11.11346913720973</v>
       </c>
       <c r="E11">
-        <v>9.998129229570454</v>
+        <v>9.462564799280702</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.50871485418328</v>
+        <v>2.032489823871945</v>
       </c>
       <c r="H11">
-        <v>81.72872029155756</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.528813652898275</v>
       </c>
       <c r="K11">
-        <v>20.94155750131068</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.2634377022136</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.36110264806008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.19880986934567</v>
+      </c>
+      <c r="N11">
+        <v>14.84226540839804</v>
+      </c>
+      <c r="O11">
+        <v>42.86650448908012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.12848067370538</v>
+        <v>35.09026764615971</v>
       </c>
       <c r="C12">
-        <v>14.83407979589786</v>
+        <v>26.09692021433915</v>
       </c>
       <c r="D12">
-        <v>9.643734455562006</v>
+        <v>11.21293556856043</v>
       </c>
       <c r="E12">
-        <v>10.10502961262811</v>
+        <v>9.511794502190909</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.67726868603445</v>
+        <v>2.027952038802048</v>
       </c>
       <c r="H12">
-        <v>82.86552681306492</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.516613634296459</v>
       </c>
       <c r="K12">
-        <v>21.28397010705865</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.43500356048425</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.64490567138747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>24.56082288605666</v>
+      </c>
+      <c r="N12">
+        <v>14.813863856538</v>
+      </c>
+      <c r="O12">
+        <v>43.33504547938831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.04104621808341</v>
+        <v>34.98064116715346</v>
       </c>
       <c r="C13">
-        <v>14.78022304501556</v>
+        <v>26.01421956807492</v>
       </c>
       <c r="D13">
-        <v>9.612382044693158</v>
+        <v>11.191459379024</v>
       </c>
       <c r="E13">
-        <v>10.0819855660942</v>
+        <v>9.50112642702099</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>82.42572962823614</v>
+        <v>2.028930719965417</v>
       </c>
       <c r="H13">
-        <v>82.62077612646598</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.519239686890233</v>
       </c>
       <c r="K13">
-        <v>21.21022704108046</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.39809377979125</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.58382396078088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24.48298960346579</v>
+      </c>
+      <c r="N13">
+        <v>14.81990147093171</v>
+      </c>
+      <c r="O13">
+        <v>43.23393204935419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.7558505260917</v>
+        <v>34.62244602674696</v>
       </c>
       <c r="C14">
-        <v>14.60479779770897</v>
+        <v>25.74405915335148</v>
       </c>
       <c r="D14">
-        <v>9.510016498312455</v>
+        <v>11.12162806039042</v>
       </c>
       <c r="E14">
-        <v>10.00691481504903</v>
+        <v>9.466585621262887</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.60491550319429</v>
+        <v>2.032117102612018</v>
       </c>
       <c r="H14">
-        <v>81.82228682529312</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.527809268134158</v>
       </c>
       <c r="K14">
-        <v>20.96973045833259</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.27757121165422</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.38447070764867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.22865360140496</v>
+      </c>
+      <c r="N14">
+        <v>14.83989348144446</v>
+      </c>
+      <c r="O14">
+        <v>42.90496059209931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.58109530683141</v>
+        <v>34.40250416752309</v>
       </c>
       <c r="C15">
-        <v>14.49748940009949</v>
+        <v>25.5782155757458</v>
       </c>
       <c r="D15">
-        <v>9.447216363328231</v>
+        <v>11.07901067048111</v>
       </c>
       <c r="E15">
-        <v>9.960989626218293</v>
+        <v>9.445617891739065</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.10171066385503</v>
+        <v>2.034065027452217</v>
       </c>
       <c r="H15">
-        <v>81.33290203338325</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.533062985870445</v>
       </c>
       <c r="K15">
-        <v>20.82239440686173</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.2036228661361</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.26222860070863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.07246633620081</v>
+      </c>
+      <c r="N15">
+        <v>14.85236677974162</v>
+      </c>
+      <c r="O15">
+        <v>42.70404147069108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.57772678248282</v>
+        <v>33.13329232319678</v>
       </c>
       <c r="C16">
-        <v>13.88401893471451</v>
+        <v>24.62179245714781</v>
       </c>
       <c r="D16">
-        <v>9.085548047997063</v>
+        <v>10.83707291777748</v>
       </c>
       <c r="E16">
-        <v>9.698532578423864</v>
+        <v>9.328260283189847</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.20928204234392</v>
+        <v>2.045179086282136</v>
       </c>
       <c r="H16">
-        <v>78.52198840567891</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.56325667751655</v>
       </c>
       <c r="K16">
-        <v>19.97685374732594</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.77762429225409</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.55908523134601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.2929066525802</v>
+      </c>
+      <c r="N16">
+        <v>14.92715970612653</v>
+      </c>
+      <c r="O16">
+        <v>41.56105525272136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.95955742345976</v>
+        <v>32.34621957840596</v>
       </c>
       <c r="C17">
-        <v>13.50824186088471</v>
+        <v>24.02917958792113</v>
       </c>
       <c r="D17">
-        <v>8.861801977990599</v>
+        <v>10.69058404629233</v>
       </c>
       <c r="E17">
-        <v>9.538008825387005</v>
+        <v>9.25865743701074</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.42493450267111</v>
+        <v>2.051963845101565</v>
       </c>
       <c r="H17">
-        <v>76.78981200566466</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.581873550928224</v>
       </c>
       <c r="K17">
-        <v>19.45622081469256</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>10.51397877598016</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.1247951568035</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>22.85559329657973</v>
+      </c>
+      <c r="N17">
+        <v>14.97582203270536</v>
+      </c>
+      <c r="O17">
+        <v>40.86681065898043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.60269830212758</v>
+        <v>31.89019492302146</v>
       </c>
       <c r="C18">
-        <v>13.29204233258294</v>
+        <v>23.68598522139221</v>
       </c>
       <c r="D18">
-        <v>8.732317908128024</v>
+        <v>10.60700006107163</v>
       </c>
       <c r="E18">
-        <v>9.445802668251609</v>
+        <v>9.219463598286303</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.39421253132818</v>
+        <v>2.055857745223647</v>
       </c>
       <c r="H18">
-        <v>75.78993103854647</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.592622226713877</v>
       </c>
       <c r="K18">
-        <v>19.15575638285306</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>10.36137164785398</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.8737080266199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22.6040315905895</v>
+      </c>
+      <c r="N18">
+        <v>15.00476734077334</v>
+      </c>
+      <c r="O18">
+        <v>40.46985579888168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.48161859139631</v>
+        <v>31.73520355145138</v>
       </c>
       <c r="C19">
-        <v>13.21880649837366</v>
+        <v>23.56936806225196</v>
       </c>
       <c r="D19">
-        <v>8.688331942416266</v>
+        <v>10.57881233669765</v>
       </c>
       <c r="E19">
-        <v>9.414599731967774</v>
+        <v>9.206334003376544</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.04440434251647</v>
+        <v>2.057175023344158</v>
       </c>
       <c r="H19">
-        <v>75.4507118887494</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.596269094654263</v>
       </c>
       <c r="K19">
-        <v>19.05382419630073</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>10.30952548876733</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.78845285318485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22.51884509217254</v>
+      </c>
+      <c r="N19">
+        <v>15.01472615189459</v>
+      </c>
+      <c r="O19">
+        <v>40.3358421897447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.02549049675152</v>
+        <v>32.43034397910986</v>
       </c>
       <c r="C20">
-        <v>13.54824469696452</v>
+        <v>24.09250252143082</v>
       </c>
       <c r="D20">
-        <v>8.885699841071755</v>
+        <v>10.70610766161051</v>
       </c>
       <c r="E20">
-        <v>9.555083001866352</v>
+        <v>9.265979012299882</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.61532203484394</v>
+        <v>2.05124255749989</v>
       </c>
       <c r="H20">
-        <v>76.97456042619018</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.579887669837271</v>
       </c>
       <c r="K20">
-        <v>19.51174116978118</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.5421417047751</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.17115549824755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>22.90214753566609</v>
+      </c>
+      <c r="N20">
+        <v>14.97054150264469</v>
+      </c>
+      <c r="O20">
+        <v>40.9404663308318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.83963054361524</v>
+        <v>34.7277670688482</v>
       </c>
       <c r="C21">
-        <v>14.65629242131532</v>
+        <v>25.82348615230666</v>
       </c>
       <c r="D21">
-        <v>9.54010351852806</v>
+        <v>11.14210635362958</v>
       </c>
       <c r="E21">
-        <v>10.02895244348153</v>
+        <v>9.476691337528615</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.84609322519093</v>
+        <v>2.031182007024139</v>
       </c>
       <c r="H21">
-        <v>82.05687710716299</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.525291255706327</v>
       </c>
       <c r="K21">
-        <v>21.04037322954165</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.3129968187099</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.44305170733452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.30344032487067</v>
+      </c>
+      <c r="N21">
+        <v>14.83397347064091</v>
+      </c>
+      <c r="O21">
+        <v>43.00146402213866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.02144652941422</v>
+        <v>36.20463012683864</v>
       </c>
       <c r="C22">
-        <v>15.38618417531174</v>
+        <v>26.93805875919969</v>
       </c>
       <c r="D22">
-        <v>9.963110274473452</v>
+        <v>11.43394577088263</v>
       </c>
       <c r="E22">
-        <v>10.34108333086366</v>
+        <v>9.622777227357066</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.24321293175558</v>
+        <v>2.017910400429614</v>
       </c>
       <c r="H22">
-        <v>85.36358476781149</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.489832438042127</v>
       </c>
       <c r="K22">
-        <v>22.03745909805017</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.81088556416647</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>19.26777701272682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25.35184185154273</v>
+      </c>
+      <c r="N22">
+        <v>14.75472389031826</v>
+      </c>
+      <c r="O22">
+        <v>44.37409084897376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.39060466926215</v>
+        <v>35.41838323672546</v>
       </c>
       <c r="C23">
-        <v>14.99575374078767</v>
+        <v>26.34449553511128</v>
       </c>
       <c r="D23">
-        <v>9.737641264904228</v>
+        <v>11.27750258897306</v>
       </c>
       <c r="E23">
-        <v>10.17419222439106</v>
+        <v>9.543993681203956</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>83.43106589339838</v>
+        <v>2.025013029267815</v>
       </c>
       <c r="H23">
-        <v>83.59912690293912</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.508744546583777</v>
       </c>
       <c r="K23">
-        <v>21.50508384696206</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11.5455450665742</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.82792574553241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>24.79376225380727</v>
+      </c>
+      <c r="N23">
+        <v>14.79602405635516</v>
+      </c>
+      <c r="O23">
+        <v>43.63887508720005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.9956867973708</v>
+        <v>32.39232237074211</v>
       </c>
       <c r="C24">
-        <v>13.53015997763286</v>
+        <v>24.06388203111342</v>
       </c>
       <c r="D24">
-        <v>8.874898287157212</v>
+        <v>10.69908746775985</v>
       </c>
       <c r="E24">
-        <v>9.547363527114154</v>
+        <v>9.262666377682194</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.52926320037786</v>
+        <v>2.051568671769812</v>
       </c>
       <c r="H24">
-        <v>76.89104838652966</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.580785343241629</v>
       </c>
       <c r="K24">
-        <v>19.48664405702396</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.52941249213247</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.15020042429251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>22.88110083378751</v>
+      </c>
+      <c r="N24">
+        <v>14.9729258285637</v>
+      </c>
+      <c r="O24">
+        <v>40.90715987066257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.36001122142601</v>
+        <v>28.99961518088892</v>
       </c>
       <c r="C25">
-        <v>11.94485487692467</v>
+        <v>21.51306148924244</v>
       </c>
       <c r="D25">
-        <v>7.913241196465655</v>
+        <v>10.10070214537021</v>
       </c>
       <c r="E25">
-        <v>8.875663507535013</v>
+        <v>8.990985794786527</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.91075189007078</v>
+        <v>2.079919611922925</v>
       </c>
       <c r="H25">
-        <v>69.51387425158178</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.660105805583435</v>
       </c>
       <c r="K25">
-        <v>17.26849322730184</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>9.504930651153728</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.28932211902499</v>
+        <v>21.04361615776349</v>
+      </c>
+      <c r="N25">
+        <v>15.19976475766443</v>
+      </c>
+      <c r="O25">
+        <v>38.04972652936572</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.53562098156959</v>
+        <v>24.95632273058639</v>
       </c>
       <c r="C2">
-        <v>19.60308194299744</v>
+        <v>14.81008618645611</v>
       </c>
       <c r="D2">
-        <v>9.679093792297715</v>
+        <v>8.394045341091944</v>
       </c>
       <c r="E2">
-        <v>8.814492940454995</v>
+        <v>7.171694876714151</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.100899851380731</v>
+        <v>47.63217647740206</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>14.28594246818985</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>21.65149999396821</v>
       </c>
       <c r="J2">
-        <v>4.72050384866597</v>
+        <v>4.726566059967586</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.255753272078261</v>
       </c>
       <c r="M2">
-        <v>19.68409028223964</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.39176267398694</v>
+        <v>12.9170775190871</v>
       </c>
       <c r="O2">
-        <v>36.00741716761168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.84289128922764</v>
+        <v>23.43514177775561</v>
       </c>
       <c r="C3">
-        <v>18.27843599637742</v>
+        <v>13.7688993519932</v>
       </c>
       <c r="D3">
-        <v>9.404422742492184</v>
+        <v>8.236498183978522</v>
       </c>
       <c r="E3">
-        <v>8.708025814635617</v>
+        <v>7.205889019131178</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.115326796691144</v>
+        <v>45.98853361876872</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>14.09836409585245</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.46507976952981</v>
       </c>
       <c r="J3">
-        <v>4.76292910237641</v>
+        <v>4.718761940295047</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.017208458778484</v>
       </c>
       <c r="M3">
-        <v>18.75850774744467</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>15.53517199865542</v>
+        <v>13.19275479465389</v>
       </c>
       <c r="O3">
-        <v>34.65817668272767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.77439028391312</v>
+        <v>22.46448368072538</v>
       </c>
       <c r="C4">
-        <v>17.43919933516117</v>
+        <v>13.09561606896944</v>
       </c>
       <c r="D4">
-        <v>9.241109269939097</v>
+        <v>8.143983147826319</v>
       </c>
       <c r="E4">
-        <v>8.648690869329764</v>
+        <v>7.229536684529678</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.124327324161546</v>
+        <v>45.00680329176588</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>13.99512112889485</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>21.37167361855619</v>
       </c>
       <c r="J4">
-        <v>4.789785220025085</v>
+        <v>4.714189356412315</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.873524043493127</v>
       </c>
       <c r="M4">
-        <v>18.18875620261734</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.62917378198232</v>
+        <v>13.36445236953223</v>
       </c>
       <c r="O4">
-        <v>33.84660773073179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.33176925250332</v>
+        <v>22.05996141591256</v>
       </c>
       <c r="C5">
-        <v>17.09070179304826</v>
+        <v>12.81259119389463</v>
       </c>
       <c r="D5">
-        <v>9.175893208276086</v>
+        <v>8.107348904944102</v>
       </c>
       <c r="E5">
-        <v>8.625967879265511</v>
+        <v>7.239825843897208</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.128036101180268</v>
+        <v>44.61391924525336</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>13.95595631969032</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.33867873381798</v>
       </c>
       <c r="J5">
-        <v>4.800941581760218</v>
+        <v>4.712377168484347</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.8157169845871</v>
       </c>
       <c r="M5">
-        <v>17.9563804793936</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.66889786076464</v>
+        <v>13.43508833929896</v>
       </c>
       <c r="O5">
-        <v>33.52015657551559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.25784381106244</v>
+        <v>21.99225768161914</v>
       </c>
       <c r="C6">
-        <v>17.03244329698214</v>
+        <v>12.7650692021472</v>
       </c>
       <c r="D6">
-        <v>9.16514473014157</v>
+        <v>8.101330356814428</v>
       </c>
       <c r="E6">
-        <v>8.622280973429978</v>
+        <v>7.241573359064725</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.128654558596415</v>
+        <v>44.54912289712297</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>13.94962585987499</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.33349943470949</v>
       </c>
       <c r="J6">
-        <v>4.802807167215143</v>
+        <v>4.712079237951995</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.806164565316953</v>
       </c>
       <c r="M6">
-        <v>17.91778864213063</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.67557754874208</v>
+        <v>13.44685930553662</v>
       </c>
       <c r="O6">
-        <v>33.46620924721105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.76844982464062</v>
+        <v>22.45906409475356</v>
       </c>
       <c r="C7">
-        <v>17.43452562563386</v>
+        <v>13.0918342872667</v>
       </c>
       <c r="D7">
-        <v>9.240224339382877</v>
+        <v>8.143484761604642</v>
       </c>
       <c r="E7">
-        <v>8.648378600797416</v>
+        <v>7.229672823964847</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.124377169565956</v>
+        <v>45.00147528459759</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>13.99458129113346</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>21.37120841527214</v>
       </c>
       <c r="J7">
-        <v>4.789934807296257</v>
+        <v>4.714164714369159</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.872741356899287</v>
       </c>
       <c r="M7">
-        <v>18.18562284262166</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.62970387052871</v>
+        <v>13.36540221487348</v>
       </c>
       <c r="O7">
-        <v>33.8421877348083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.95806353695443</v>
+        <v>24.43954770823499</v>
       </c>
       <c r="C8">
-        <v>19.15169959057686</v>
+        <v>14.45807208701777</v>
       </c>
       <c r="D8">
-        <v>9.583273606257004</v>
+        <v>8.338850719883467</v>
       </c>
       <c r="E8">
-        <v>8.77649218585695</v>
+        <v>7.182925569967913</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.105848026682835</v>
+        <v>47.05990252171372</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>14.21873452662346</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>21.58271704708126</v>
       </c>
       <c r="J8">
-        <v>4.73497054004944</v>
+        <v>4.723827234658421</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.172951988183007</v>
       </c>
       <c r="M8">
-        <v>19.36532892379647</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15.43992531361151</v>
+        <v>13.01166192084616</v>
       </c>
       <c r="O8">
-        <v>35.53869628079067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.16157314788652</v>
+        <v>28.02564969546149</v>
       </c>
       <c r="C9">
-        <v>22.3860558262121</v>
+        <v>16.87280552675534</v>
       </c>
       <c r="D9">
-        <v>10.29917353380269</v>
+        <v>8.755220441551982</v>
       </c>
       <c r="E9">
-        <v>9.07861827434529</v>
+        <v>7.112997984497767</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.070374430679128</v>
+        <v>51.3042081231799</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.75697721320608</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>22.1745226072924</v>
       </c>
       <c r="J9">
-        <v>4.633113315199741</v>
+        <v>4.744711286199369</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.781931754690037</v>
       </c>
       <c r="M9">
-        <v>21.66341055215863</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.11912361583636</v>
+        <v>12.33447936613217</v>
       </c>
       <c r="O9">
-        <v>39.00196075354656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.2226677999675</v>
+        <v>30.52759547887576</v>
       </c>
       <c r="C10">
-        <v>24.68910927025492</v>
+        <v>18.49352113189224</v>
       </c>
       <c r="D10">
-        <v>10.85388201731061</v>
+        <v>9.081234497281084</v>
       </c>
       <c r="E10">
-        <v>9.336319018440411</v>
+        <v>7.075930130694334</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.044403481035209</v>
+        <v>54.5393751245038</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.21804379482218</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>22.73079747462153</v>
       </c>
       <c r="J10">
-        <v>4.561137446785877</v>
+        <v>4.761542413560401</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.23970094297916</v>
       </c>
       <c r="M10">
-        <v>23.34280869202015</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.92174112621444</v>
+        <v>11.8427513798739</v>
       </c>
       <c r="O10">
-        <v>41.64060597860534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.58041876692189</v>
+        <v>31.66949883275245</v>
       </c>
       <c r="C11">
-        <v>25.71236670635849</v>
+        <v>19.19941891711906</v>
       </c>
       <c r="D11">
-        <v>11.11346913720973</v>
+        <v>9.23393788988283</v>
       </c>
       <c r="E11">
-        <v>9.462564799280702</v>
+        <v>7.062432397199091</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.032489823871945</v>
+        <v>56.03590526657239</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.4432496800587</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>23.01316154748083</v>
       </c>
       <c r="J11">
-        <v>4.528813652898275</v>
+        <v>4.769601443327722</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.44992908893209</v>
       </c>
       <c r="M11">
-        <v>24.19880986934567</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.84226540839804</v>
+        <v>11.61924865302994</v>
       </c>
       <c r="O11">
-        <v>42.86650448908012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.09026764615971</v>
+        <v>32.09497281154788</v>
       </c>
       <c r="C12">
-        <v>26.09692021433915</v>
+        <v>19.46238574942144</v>
       </c>
       <c r="D12">
-        <v>11.21293556856043</v>
+        <v>9.292402803874587</v>
       </c>
       <c r="E12">
-        <v>9.511794502190909</v>
+        <v>7.057828942275435</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.027952038802048</v>
+        <v>56.60623906740408</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.53085842408557</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>23.12454647698521</v>
       </c>
       <c r="J12">
-        <v>4.516613634296459</v>
+        <v>4.772718653660747</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.52981229243369</v>
       </c>
       <c r="M12">
-        <v>24.56082288605666</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.813863856538</v>
+        <v>11.534542120502</v>
       </c>
       <c r="O12">
-        <v>43.33504547938831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.98064116715346</v>
+        <v>32.00364472345054</v>
       </c>
       <c r="C13">
-        <v>26.01421956807492</v>
+        <v>19.40594133021284</v>
       </c>
       <c r="D13">
-        <v>11.191459379024</v>
+        <v>9.279782716937495</v>
       </c>
       <c r="E13">
-        <v>9.50112642702099</v>
+        <v>7.058797385306013</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.028930719965417</v>
+        <v>56.48324393355512</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.51188500629529</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>23.10035538532862</v>
       </c>
       <c r="J13">
-        <v>4.519239686890233</v>
+        <v>4.77204426560276</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.51259587143613</v>
       </c>
       <c r="M13">
-        <v>24.48298960346579</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.81990147093171</v>
+        <v>11.55279001139348</v>
       </c>
       <c r="O13">
-        <v>43.23393204935419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.62244602674696</v>
+        <v>31.70464073920854</v>
       </c>
       <c r="C14">
-        <v>25.74405915335148</v>
+        <v>19.22113932948102</v>
       </c>
       <c r="D14">
-        <v>11.12162806039042</v>
+        <v>9.238734954590694</v>
       </c>
       <c r="E14">
-        <v>9.466585621262887</v>
+        <v>7.06204334456601</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.032117102612018</v>
+        <v>56.08275349604833</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.45041001373569</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>23.02223443509849</v>
       </c>
       <c r="J14">
-        <v>4.527809268134158</v>
+        <v>4.769856539952248</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.4564956539189</v>
       </c>
       <c r="M14">
-        <v>24.22865360140496</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.83989348144446</v>
+        <v>11.61228181417842</v>
       </c>
       <c r="O14">
-        <v>42.90496059209931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.40250416752309</v>
+        <v>31.52059444786021</v>
       </c>
       <c r="C15">
-        <v>25.5782155757458</v>
+        <v>19.10738273070323</v>
       </c>
       <c r="D15">
-        <v>11.07901067048111</v>
+        <v>9.213675608909691</v>
       </c>
       <c r="E15">
-        <v>9.445617891739065</v>
+        <v>7.064098476064482</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.034065027452217</v>
+        <v>55.83791788059801</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.41306125329225</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>22.97497132076395</v>
       </c>
       <c r="J15">
-        <v>4.533062985870445</v>
+        <v>4.768525256919858</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.42216823812609</v>
       </c>
       <c r="M15">
-        <v>24.07246633620081</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.85236677974162</v>
+        <v>11.64870994703107</v>
       </c>
       <c r="O15">
-        <v>42.70404147069108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.13329232319678</v>
+        <v>30.45198738464765</v>
       </c>
       <c r="C16">
-        <v>24.62179245714781</v>
+        <v>18.44677190858737</v>
       </c>
       <c r="D16">
-        <v>10.83707291777748</v>
+        <v>9.071343929107503</v>
       </c>
       <c r="E16">
-        <v>9.328260283189847</v>
+        <v>7.076881946264614</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.045179086282136</v>
+        <v>54.44207577660796</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15.20364597435385</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>22.71295486838795</v>
       </c>
       <c r="J16">
-        <v>4.56325667751655</v>
+        <v>4.76102445967301</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.2260007966538</v>
       </c>
       <c r="M16">
-        <v>23.2929066525802</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.92715970612653</v>
+        <v>11.85735344520309</v>
       </c>
       <c r="O16">
-        <v>41.56105525272136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.34621957840596</v>
+        <v>29.78386142782605</v>
       </c>
       <c r="C17">
-        <v>24.02917958792113</v>
+        <v>18.03358904249837</v>
       </c>
       <c r="D17">
-        <v>10.69058404629233</v>
+        <v>8.985157568731704</v>
       </c>
       <c r="E17">
-        <v>9.25865743701074</v>
+        <v>7.085602345362292</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.051963845101565</v>
+        <v>53.59214229886934</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>15.07920900435237</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>22.55989523337647</v>
       </c>
       <c r="J17">
-        <v>4.581873550928224</v>
+        <v>4.756531122822772</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.10615575950519</v>
       </c>
       <c r="M17">
-        <v>22.85559329657973</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.97582203270536</v>
+        <v>11.98533095776342</v>
       </c>
       <c r="O17">
-        <v>40.86681065898043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.89019492302146</v>
+        <v>29.41281047378923</v>
       </c>
       <c r="C18">
-        <v>23.68598522139221</v>
+        <v>17.7929730424761</v>
       </c>
       <c r="D18">
-        <v>10.60700006107163</v>
+        <v>8.935998658435524</v>
       </c>
       <c r="E18">
-        <v>9.219463598286303</v>
+        <v>7.090933218221693</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.055857745223647</v>
+        <v>53.10561119404428</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>15.00908509051504</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>22.47460333021094</v>
       </c>
       <c r="J18">
-        <v>4.592622226713877</v>
+        <v>4.753984050372241</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.03741109473918</v>
       </c>
       <c r="M18">
-        <v>22.6040315905895</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>15.00476734077334</v>
+        <v>12.05896425302277</v>
       </c>
       <c r="O18">
-        <v>40.46985579888168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.73520355145138</v>
+        <v>29.28885941750895</v>
       </c>
       <c r="C19">
-        <v>23.56936806225196</v>
+        <v>17.71099057975648</v>
       </c>
       <c r="D19">
-        <v>10.57881233669765</v>
+        <v>8.919425149907866</v>
       </c>
       <c r="E19">
-        <v>9.206334003376544</v>
+        <v>7.092791588247972</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.057175023344158</v>
+        <v>52.94127988655829</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.98558814858251</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>22.44618891503886</v>
       </c>
       <c r="J19">
-        <v>4.596269094654263</v>
+        <v>4.753127860034223</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.01416797880405</v>
       </c>
       <c r="M19">
-        <v>22.51884509217254</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>15.01472615189459</v>
+        <v>12.08390215886017</v>
       </c>
       <c r="O19">
-        <v>40.3358421897447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.43034397910986</v>
+        <v>29.85546742267576</v>
       </c>
       <c r="C20">
-        <v>24.09250252143082</v>
+        <v>18.07787866025692</v>
       </c>
       <c r="D20">
-        <v>10.70610766161051</v>
+        <v>8.994289457794133</v>
       </c>
       <c r="E20">
-        <v>9.265979012299882</v>
+        <v>7.084641262376998</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.05124255749989</v>
+        <v>53.68237812156006</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15.09230484356107</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>22.57590296003864</v>
       </c>
       <c r="J20">
-        <v>4.579887669837271</v>
+        <v>4.757005526253072</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.11889422853932</v>
       </c>
       <c r="M20">
-        <v>22.90214753566609</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.97054150264469</v>
+        <v>11.97170572297449</v>
       </c>
       <c r="O20">
-        <v>40.9404663308318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.7277670688482</v>
+        <v>31.79265216219472</v>
       </c>
       <c r="C21">
-        <v>25.82348615230666</v>
+        <v>19.27553654043615</v>
       </c>
       <c r="D21">
-        <v>11.14210635362958</v>
+        <v>9.250774234605599</v>
       </c>
       <c r="E21">
-        <v>9.476691337528615</v>
+        <v>7.061075942198501</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.031182007024139</v>
+        <v>56.20028771875818</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.46840264611653</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>23.04505741534308</v>
       </c>
       <c r="J21">
-        <v>4.525291255706327</v>
+        <v>4.770497287087203</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.47296623538515</v>
       </c>
       <c r="M21">
-        <v>24.30344032487067</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.83397347064091</v>
+        <v>11.59481038542112</v>
       </c>
       <c r="O21">
-        <v>43.00146402213866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.20463012683864</v>
+        <v>33.01837284446897</v>
       </c>
       <c r="C22">
-        <v>26.93805875919969</v>
+        <v>20.03306201485322</v>
       </c>
       <c r="D22">
-        <v>11.43394577088263</v>
+        <v>9.422137296836839</v>
       </c>
       <c r="E22">
-        <v>9.622777227357066</v>
+        <v>7.048647581870393</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.017910400429614</v>
+        <v>57.86715396578521</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>15.72783038351399</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>23.37779364972918</v>
       </c>
       <c r="J22">
-        <v>4.489832438042127</v>
+        <v>4.779700564351756</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.70597510907204</v>
       </c>
       <c r="M22">
-        <v>25.35184185154273</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.75472389031826</v>
+        <v>11.34802098990144</v>
       </c>
       <c r="O22">
-        <v>44.37409084897376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.41838323672546</v>
+        <v>32.36780377570478</v>
       </c>
       <c r="C23">
-        <v>26.34449553511128</v>
+        <v>19.63100271881787</v>
       </c>
       <c r="D23">
-        <v>11.27750258897306</v>
+        <v>9.330331730616729</v>
       </c>
       <c r="E23">
-        <v>9.543993681203956</v>
+        <v>7.055000264487517</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.025013029267815</v>
+        <v>56.97552221954223</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.58808507566277</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>23.19773271466705</v>
       </c>
       <c r="J23">
-        <v>4.508744546583777</v>
+        <v>4.774750553299887</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.58146799704314</v>
       </c>
       <c r="M23">
-        <v>24.79376225380727</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.79602405635516</v>
+        <v>11.47981494799231</v>
       </c>
       <c r="O23">
-        <v>43.63887508720005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.39232237074211</v>
+        <v>29.82310947642134</v>
       </c>
       <c r="C24">
-        <v>24.06388203111342</v>
+        <v>18.05786490427071</v>
       </c>
       <c r="D24">
-        <v>10.69908746775985</v>
+        <v>8.990159714003191</v>
       </c>
       <c r="E24">
-        <v>9.262666377682194</v>
+        <v>7.0850747811542</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.051568671769812</v>
+        <v>53.64157594636353</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>15.08637981016024</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>22.56865746246819</v>
       </c>
       <c r="J24">
-        <v>4.580785343241629</v>
+        <v>4.756790936243963</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.11313468025843</v>
       </c>
       <c r="M24">
-        <v>22.88110083378751</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.9729258285637</v>
+        <v>11.97786550583645</v>
       </c>
       <c r="O24">
-        <v>40.90715987066257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.99961518088892</v>
+        <v>27.08805620522358</v>
       </c>
       <c r="C25">
-        <v>21.51306148924244</v>
+        <v>16.24709440702117</v>
       </c>
       <c r="D25">
-        <v>10.10070214537021</v>
+        <v>8.639045335777643</v>
       </c>
       <c r="E25">
-        <v>8.990985794786527</v>
+        <v>7.129484156141157</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.079919611922925</v>
+        <v>50.13500338044895</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.60023994484986</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>21.99406856175904</v>
       </c>
       <c r="J25">
-        <v>4.660105805583435</v>
+        <v>4.738824686991607</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.615247692613082</v>
       </c>
       <c r="M25">
-        <v>21.04361615776349</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.19976475766443</v>
+        <v>12.5163249088522</v>
       </c>
       <c r="O25">
-        <v>38.04972652936572</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.95632273058639</v>
+        <v>24.23365319659188</v>
       </c>
       <c r="C2">
-        <v>14.81008618645611</v>
+        <v>9.43623903500807</v>
       </c>
       <c r="D2">
-        <v>8.394045341091944</v>
+        <v>12.87209423634133</v>
       </c>
       <c r="E2">
-        <v>7.171694876714151</v>
+        <v>12.5273083942387</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.63217647740206</v>
+        <v>57.96440946188886</v>
       </c>
       <c r="H2">
-        <v>14.28594246818985</v>
+        <v>21.41963293469</v>
       </c>
       <c r="I2">
-        <v>21.65149999396821</v>
+        <v>32.34717319489383</v>
       </c>
       <c r="J2">
-        <v>4.726566059967586</v>
+        <v>7.759257348099688</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.255753272078261</v>
+        <v>13.87585490966716</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.9170775190871</v>
+        <v>20.11759498332341</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.43514177775561</v>
+        <v>23.89247543999452</v>
       </c>
       <c r="C3">
-        <v>13.7688993519932</v>
+        <v>9.034822717385589</v>
       </c>
       <c r="D3">
-        <v>8.236498183978522</v>
+        <v>12.88138324503198</v>
       </c>
       <c r="E3">
-        <v>7.205889019131178</v>
+        <v>12.55492113915233</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.98853361876872</v>
+        <v>57.85729736146605</v>
       </c>
       <c r="H3">
-        <v>14.09836409585245</v>
+        <v>21.4561897580185</v>
       </c>
       <c r="I3">
-        <v>21.46507976952981</v>
+        <v>32.42360694753853</v>
       </c>
       <c r="J3">
-        <v>4.718761940295047</v>
+        <v>7.758821537352147</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.017208458778484</v>
+        <v>13.87212774838779</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.19275479465389</v>
+        <v>20.19232851165093</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.46448368072538</v>
+        <v>23.68629876282057</v>
       </c>
       <c r="C4">
-        <v>13.09561606896944</v>
+        <v>8.781396656597179</v>
       </c>
       <c r="D4">
-        <v>8.143983147826319</v>
+        <v>12.88933671721171</v>
       </c>
       <c r="E4">
-        <v>7.229536684529678</v>
+        <v>12.57313491652429</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45.00680329176588</v>
+        <v>57.80877182782097</v>
       </c>
       <c r="H4">
-        <v>13.99512112889485</v>
+        <v>21.4830778761529</v>
       </c>
       <c r="I4">
-        <v>21.37167361855619</v>
+        <v>32.47760160799495</v>
       </c>
       <c r="J4">
-        <v>4.714189356412315</v>
+        <v>7.758608764314492</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.873524043493127</v>
+        <v>13.87222642756381</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.36445236953223</v>
+        <v>20.24020280808434</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.05996141591256</v>
+        <v>23.60321467199493</v>
       </c>
       <c r="C5">
-        <v>12.81259119389463</v>
+        <v>8.676541264259358</v>
       </c>
       <c r="D5">
-        <v>8.107348904944102</v>
+        <v>12.89314348222514</v>
       </c>
       <c r="E5">
-        <v>7.239825843897208</v>
+        <v>12.58087436286751</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.61391924525336</v>
+        <v>57.79333603968338</v>
       </c>
       <c r="H5">
-        <v>13.95595631969032</v>
+        <v>21.49514907700746</v>
       </c>
       <c r="I5">
-        <v>21.33867873381798</v>
+        <v>32.5013750873497</v>
       </c>
       <c r="J5">
-        <v>4.712377168484347</v>
+        <v>7.758535841523546</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.8157169845871</v>
+        <v>13.87286787631525</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.43508833929896</v>
+        <v>20.2602136138299</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.99225768161914</v>
+        <v>23.58947804254973</v>
       </c>
       <c r="C6">
-        <v>12.7650692021472</v>
+        <v>8.659039811088157</v>
       </c>
       <c r="D6">
-        <v>8.101330356814428</v>
+        <v>12.89380975058731</v>
       </c>
       <c r="E6">
-        <v>7.241573359064725</v>
+        <v>12.58217866356745</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.54912289712297</v>
+        <v>57.79103499155867</v>
       </c>
       <c r="H6">
-        <v>13.94962585987499</v>
+        <v>21.49722068777143</v>
       </c>
       <c r="I6">
-        <v>21.33349943470949</v>
+        <v>32.50542938869462</v>
       </c>
       <c r="J6">
-        <v>4.712079237951995</v>
+        <v>7.758524565271019</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.806164565316953</v>
+        <v>13.8730107245549</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.44685930553662</v>
+        <v>20.26356674479214</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.45906409475356</v>
+        <v>23.68517434301214</v>
       </c>
       <c r="C7">
-        <v>13.0918342872667</v>
+        <v>8.779988711359342</v>
       </c>
       <c r="D7">
-        <v>8.143484761604642</v>
+        <v>12.88938576650964</v>
       </c>
       <c r="E7">
-        <v>7.229672823964847</v>
+        <v>12.57323800848752</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>45.00147528459759</v>
+        <v>57.80854608735096</v>
       </c>
       <c r="H7">
-        <v>13.99458129113346</v>
+        <v>21.4832361658786</v>
       </c>
       <c r="I7">
-        <v>21.37120841527214</v>
+        <v>32.47791506628877</v>
       </c>
       <c r="J7">
-        <v>4.714164714369159</v>
+        <v>7.758607725039661</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.872741356899287</v>
+        <v>13.87223264291655</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.36540221487348</v>
+        <v>20.2404706472893</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.43954770823499</v>
+        <v>24.11539063167996</v>
       </c>
       <c r="C8">
-        <v>14.45807208701777</v>
+        <v>9.299367966786628</v>
       </c>
       <c r="D8">
-        <v>8.338850719883467</v>
+        <v>12.87483007720729</v>
       </c>
       <c r="E8">
-        <v>7.182925569967913</v>
+        <v>12.53656816474569</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.05990252171372</v>
+        <v>57.92390197579967</v>
       </c>
       <c r="H8">
-        <v>14.21873452662346</v>
+        <v>21.43131408511101</v>
       </c>
       <c r="I8">
-        <v>21.58271704708126</v>
+        <v>32.37205783109874</v>
       </c>
       <c r="J8">
-        <v>4.723827234658421</v>
+        <v>7.759095702843998</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.172951988183007</v>
+        <v>13.8740749779393</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.01166192084616</v>
+        <v>20.14295169043609</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.02564969546149</v>
+        <v>24.98072505451243</v>
       </c>
       <c r="C9">
-        <v>16.87280552675534</v>
+        <v>10.25635514517077</v>
       </c>
       <c r="D9">
-        <v>8.755220441551982</v>
+        <v>12.86413922800951</v>
       </c>
       <c r="E9">
-        <v>7.112997984497767</v>
+        <v>12.47463011593616</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.3042081231799</v>
+        <v>58.28657524292148</v>
       </c>
       <c r="H9">
-        <v>14.75697721320608</v>
+        <v>21.36486311766885</v>
       </c>
       <c r="I9">
-        <v>22.1745226072924</v>
+        <v>32.22078449610242</v>
       </c>
       <c r="J9">
-        <v>4.744711286199369</v>
+        <v>7.760487775990218</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.781931754690037</v>
+        <v>13.89657753144136</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.33447936613217</v>
+        <v>19.96740247423269</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.52759547887576</v>
+        <v>25.62358602438325</v>
       </c>
       <c r="C10">
-        <v>18.49352113189224</v>
+        <v>10.91475053106018</v>
       </c>
       <c r="D10">
-        <v>9.081234497281084</v>
+        <v>12.8671611239164</v>
       </c>
       <c r="E10">
-        <v>7.075930130694334</v>
+        <v>12.43517351206187</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.5393751245038</v>
+        <v>58.63546304878776</v>
       </c>
       <c r="H10">
-        <v>15.21804379482218</v>
+        <v>21.33775714504614</v>
       </c>
       <c r="I10">
-        <v>22.73079747462153</v>
+        <v>32.14431762631899</v>
       </c>
       <c r="J10">
-        <v>4.761542413560401</v>
+        <v>7.761776387787359</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.23970094297916</v>
+        <v>13.92454350081534</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.8427513798739</v>
+        <v>19.84786641366795</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.66949883275245</v>
+        <v>25.9163033614521</v>
       </c>
       <c r="C11">
-        <v>19.19941891711906</v>
+        <v>11.20336999273585</v>
       </c>
       <c r="D11">
-        <v>9.23393788988283</v>
+        <v>12.87089257801021</v>
       </c>
       <c r="E11">
-        <v>7.062432397199091</v>
+        <v>12.41853103853058</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.03590526657239</v>
+        <v>58.8118212548215</v>
       </c>
       <c r="H11">
-        <v>15.4432496800587</v>
+        <v>21.33016872009316</v>
       </c>
       <c r="I11">
-        <v>23.01316154748083</v>
+        <v>32.1171271558448</v>
       </c>
       <c r="J11">
-        <v>4.769601443327722</v>
+        <v>7.762420485991645</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.44992908893209</v>
+        <v>13.93972550511064</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.61924865302994</v>
+        <v>19.79550992275061</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.09497281154788</v>
+        <v>26.02708360260816</v>
       </c>
       <c r="C12">
-        <v>19.46238574942144</v>
+        <v>11.3110162684026</v>
       </c>
       <c r="D12">
-        <v>9.292402803874587</v>
+        <v>12.87264370058922</v>
       </c>
       <c r="E12">
-        <v>7.057828942275435</v>
+        <v>12.41241637544836</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.60623906740408</v>
+        <v>58.88111181519331</v>
       </c>
       <c r="H12">
-        <v>15.53085842408557</v>
+        <v>21.32797880663199</v>
       </c>
       <c r="I12">
-        <v>23.12454647698521</v>
+        <v>32.1079278334711</v>
       </c>
       <c r="J12">
-        <v>4.772718653660747</v>
+        <v>7.762672722467371</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.52981229243369</v>
+        <v>13.94582582950173</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.534542120502</v>
+        <v>19.77597254267955</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.00364472345054</v>
+        <v>26.00322965054428</v>
       </c>
       <c r="C13">
-        <v>19.40594133021284</v>
+        <v>11.28790717202763</v>
       </c>
       <c r="D13">
-        <v>9.279782716937495</v>
+        <v>12.87225154260409</v>
       </c>
       <c r="E13">
-        <v>7.058797385306013</v>
+        <v>12.41372494558297</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.48324393355512</v>
+        <v>58.86607785722846</v>
       </c>
       <c r="H13">
-        <v>15.51188500629529</v>
+        <v>21.32842001354868</v>
       </c>
       <c r="I13">
-        <v>23.10035538532862</v>
+        <v>32.10986020178239</v>
       </c>
       <c r="J13">
-        <v>4.77204426560276</v>
+        <v>7.762618028260106</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.51259587143613</v>
+        <v>13.94449643787846</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.55279001139348</v>
+        <v>19.78016744634205</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.70464073920854</v>
+        <v>25.92541922265396</v>
       </c>
       <c r="C14">
-        <v>19.22113932948102</v>
+        <v>11.21225956395454</v>
       </c>
       <c r="D14">
-        <v>9.238734954590694</v>
+        <v>12.87102987311166</v>
       </c>
       <c r="E14">
-        <v>7.06204334456601</v>
+        <v>12.41802422639034</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.08275349604833</v>
+        <v>58.81747176469646</v>
       </c>
       <c r="H14">
-        <v>15.45041001373569</v>
+        <v>21.32997484426881</v>
       </c>
       <c r="I14">
-        <v>23.02223443509849</v>
+        <v>32.11634830683986</v>
       </c>
       <c r="J14">
-        <v>4.769856539952248</v>
+        <v>7.762441070657903</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.4564956539189</v>
+        <v>13.94022035884974</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.61228181417842</v>
+        <v>19.79389679095485</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.52059444786021</v>
+        <v>25.87774649122048</v>
       </c>
       <c r="C15">
-        <v>19.10738273070323</v>
+        <v>11.16570642429924</v>
       </c>
       <c r="D15">
-        <v>9.213675608909691</v>
+        <v>12.8703255691297</v>
       </c>
       <c r="E15">
-        <v>7.064098476064482</v>
+        <v>12.42068206380045</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55.83791788059801</v>
+        <v>58.78802471381373</v>
       </c>
       <c r="H15">
-        <v>15.41306125329225</v>
+        <v>21.33101630149442</v>
       </c>
       <c r="I15">
-        <v>22.97497132076395</v>
+        <v>32.12046547789706</v>
       </c>
       <c r="J15">
-        <v>4.768525256919858</v>
+        <v>7.762333764019592</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.42216823812609</v>
+        <v>13.93764679725113</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.64870994703107</v>
+        <v>19.80234398102623</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.45198738464765</v>
+        <v>25.60445276208107</v>
       </c>
       <c r="C16">
-        <v>18.44677190858737</v>
+        <v>10.89566218421843</v>
       </c>
       <c r="D16">
-        <v>9.071343929107503</v>
+        <v>12.86696462498597</v>
       </c>
       <c r="E16">
-        <v>7.076881946264614</v>
+        <v>12.43628739355279</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.44207577660796</v>
+        <v>58.62429026231212</v>
       </c>
       <c r="H16">
-        <v>15.20364597435385</v>
+        <v>21.33834864738351</v>
       </c>
       <c r="I16">
-        <v>22.71295486838795</v>
+        <v>32.14624784924665</v>
       </c>
       <c r="J16">
-        <v>4.76102445967301</v>
+        <v>7.761735459947705</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.2260007966538</v>
+        <v>13.92360061509464</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.85735344520309</v>
+        <v>19.851328553553</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.78386142782605</v>
+        <v>25.43679098628152</v>
       </c>
       <c r="C17">
-        <v>18.03358904249837</v>
+        <v>10.72714778444065</v>
       </c>
       <c r="D17">
-        <v>8.985157568731704</v>
+        <v>12.86550591327937</v>
       </c>
       <c r="E17">
-        <v>7.085602345362292</v>
+        <v>12.44619510809074</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>53.59214229886934</v>
+        <v>58.52834439065246</v>
       </c>
       <c r="H17">
-        <v>15.07920900435237</v>
+        <v>21.34406273297418</v>
       </c>
       <c r="I17">
-        <v>22.55989523337647</v>
+        <v>32.1640133682178</v>
       </c>
       <c r="J17">
-        <v>4.756531122822772</v>
+        <v>7.761383252822846</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.10615575950519</v>
+        <v>13.91561212381071</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.98533095776342</v>
+        <v>19.88189540466576</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.41281047378923</v>
+        <v>25.34038853955555</v>
       </c>
       <c r="C18">
-        <v>17.7929730424761</v>
+        <v>10.62920198981162</v>
       </c>
       <c r="D18">
-        <v>8.935998658435524</v>
+        <v>12.86488879199569</v>
       </c>
       <c r="E18">
-        <v>7.090933218221693</v>
+        <v>12.45201676404613</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.10561119404428</v>
+        <v>58.47482201459445</v>
       </c>
       <c r="H18">
-        <v>15.00908509051504</v>
+        <v>21.34779560016155</v>
       </c>
       <c r="I18">
-        <v>22.47460333021094</v>
+        <v>32.174946197564</v>
       </c>
       <c r="J18">
-        <v>4.753984050372241</v>
+        <v>7.76118612236514</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.03741109473918</v>
+        <v>13.91124908519125</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.05896425302277</v>
+        <v>19.89966698453852</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.28885941750895</v>
+        <v>25.30775710693203</v>
       </c>
       <c r="C19">
-        <v>17.71099057975648</v>
+        <v>10.59586661292076</v>
       </c>
       <c r="D19">
-        <v>8.919425149907866</v>
+        <v>12.86471797658683</v>
       </c>
       <c r="E19">
-        <v>7.092791588247972</v>
+        <v>12.45400901437385</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>52.94127988655829</v>
+        <v>58.45698674984826</v>
       </c>
       <c r="H19">
-        <v>14.98558814858251</v>
+        <v>21.34913607518537</v>
       </c>
       <c r="I19">
-        <v>22.44618891503886</v>
+        <v>32.1787704352262</v>
       </c>
       <c r="J19">
-        <v>4.753127860034223</v>
+        <v>7.761120313259245</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.01416797880405</v>
+        <v>13.90981170784202</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.08390215886017</v>
+        <v>19.90571687953023</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.85546742267576</v>
+        <v>25.4546363106494</v>
       </c>
       <c r="C20">
-        <v>18.07787866025692</v>
+        <v>10.7451927089479</v>
       </c>
       <c r="D20">
-        <v>8.994289457794133</v>
+        <v>12.86563823595396</v>
       </c>
       <c r="E20">
-        <v>7.084641262376998</v>
+        <v>12.44512768778163</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.68237812156006</v>
+        <v>58.53838606710583</v>
       </c>
       <c r="H20">
-        <v>15.09230484356107</v>
+        <v>21.34340825753504</v>
       </c>
       <c r="I20">
-        <v>22.57590296003864</v>
+        <v>32.16204820558388</v>
       </c>
       <c r="J20">
-        <v>4.757005526253072</v>
+        <v>7.761420181810502</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.11889422853932</v>
+        <v>13.9164385466614</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.97170572297449</v>
+        <v>19.87862182490372</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.79265216219472</v>
+        <v>25.94827663191816</v>
       </c>
       <c r="C21">
-        <v>19.27553654043615</v>
+        <v>11.23452440945133</v>
       </c>
       <c r="D21">
-        <v>9.250774234605599</v>
+        <v>12.87137953838649</v>
       </c>
       <c r="E21">
-        <v>7.061075942198501</v>
+        <v>12.41675633837927</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.20028771875818</v>
+        <v>58.83168076083252</v>
       </c>
       <c r="H21">
-        <v>15.46840264611653</v>
+        <v>21.32949958626067</v>
       </c>
       <c r="I21">
-        <v>23.04505741534308</v>
+        <v>32.11441277959464</v>
       </c>
       <c r="J21">
-        <v>4.770497287087203</v>
+        <v>7.762492821274226</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.47296623538515</v>
+        <v>13.94146683627403</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.59481038542112</v>
+        <v>19.7898563231596</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.01837284446897</v>
+        <v>26.27047097139868</v>
       </c>
       <c r="C22">
-        <v>20.03306201485322</v>
+        <v>11.54469753567673</v>
       </c>
       <c r="D22">
-        <v>9.422137296836839</v>
+        <v>12.87710202237926</v>
       </c>
       <c r="E22">
-        <v>7.048647581870393</v>
+        <v>12.39930662002556</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>57.86715396578521</v>
+        <v>59.03796453796431</v>
       </c>
       <c r="H22">
-        <v>15.72783038351399</v>
+        <v>21.32439492821003</v>
       </c>
       <c r="I22">
-        <v>23.37779364972918</v>
+        <v>32.08967717166887</v>
       </c>
       <c r="J22">
-        <v>4.779700564351756</v>
+        <v>7.763242411656261</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.70597510907204</v>
+        <v>13.95987012668572</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.34802098990144</v>
+        <v>19.73352598731074</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.36780377570478</v>
+        <v>26.098582932229</v>
       </c>
       <c r="C23">
-        <v>19.63100271881787</v>
+        <v>11.38005773619246</v>
       </c>
       <c r="D23">
-        <v>9.330331730616729</v>
+        <v>12.87386786402476</v>
       </c>
       <c r="E23">
-        <v>7.055000264487517</v>
+        <v>12.40852002031763</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.97552221954223</v>
+        <v>58.92654231986856</v>
       </c>
       <c r="H23">
-        <v>15.58808507566277</v>
+        <v>21.32675421985647</v>
       </c>
       <c r="I23">
-        <v>23.19773271466705</v>
+        <v>32.10229215935333</v>
       </c>
       <c r="J23">
-        <v>4.774750553299887</v>
+        <v>7.762837896593208</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.58146799704314</v>
+        <v>13.94986165871986</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.47981494799231</v>
+        <v>19.76343712128445</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.82310947642134</v>
+        <v>25.44656846711068</v>
       </c>
       <c r="C24">
-        <v>18.05786490427071</v>
+        <v>10.73703790833321</v>
       </c>
       <c r="D24">
-        <v>8.990159714003191</v>
+        <v>12.8655777228478</v>
       </c>
       <c r="E24">
-        <v>7.0850747811542</v>
+        <v>12.44560987731505</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>53.64157594636353</v>
+        <v>58.53384112014835</v>
       </c>
       <c r="H24">
-        <v>15.08637981016024</v>
+        <v>21.34370275123884</v>
       </c>
       <c r="I24">
-        <v>22.56865746246819</v>
+        <v>32.16293441572552</v>
       </c>
       <c r="J24">
-        <v>4.756790936243963</v>
+        <v>7.761403469527539</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.11313468025843</v>
+        <v>13.91606420537131</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.97786550583645</v>
+        <v>19.88010119249982</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.08805620522358</v>
+        <v>24.74494235413925</v>
       </c>
       <c r="C25">
-        <v>16.24709440702117</v>
+        <v>10.00485978997667</v>
       </c>
       <c r="D25">
-        <v>8.639045335777643</v>
+        <v>12.86512014231033</v>
       </c>
       <c r="E25">
-        <v>7.129484156141157</v>
+        <v>12.49032156565031</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.13500338044895</v>
+        <v>58.17391302280183</v>
       </c>
       <c r="H25">
-        <v>14.60023994484986</v>
+        <v>21.37903643645789</v>
       </c>
       <c r="I25">
-        <v>21.99406856175904</v>
+        <v>32.25564249555946</v>
       </c>
       <c r="J25">
-        <v>4.738824686991607</v>
+        <v>7.760064538808736</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.615247692613082</v>
+        <v>13.88847511389357</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.5163249088522</v>
+        <v>20.01322663798352</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.23365319659188</v>
+        <v>24.95632273058639</v>
       </c>
       <c r="C2">
-        <v>9.43623903500807</v>
+        <v>14.81008618645604</v>
       </c>
       <c r="D2">
-        <v>12.87209423634133</v>
+        <v>8.394045341091985</v>
       </c>
       <c r="E2">
-        <v>12.5273083942387</v>
+        <v>7.171694876714223</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>57.96440946188886</v>
+        <v>47.63217647740198</v>
       </c>
       <c r="H2">
-        <v>21.41963293469</v>
+        <v>14.28594246818985</v>
       </c>
       <c r="I2">
-        <v>32.34717319489383</v>
+        <v>21.65149999396816</v>
       </c>
       <c r="J2">
-        <v>7.759257348099688</v>
+        <v>4.726566059967585</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.87585490966716</v>
+        <v>9.255753272078312</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.11759498332341</v>
+        <v>12.9170775190871</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.89247543999452</v>
+        <v>23.43514177775564</v>
       </c>
       <c r="C3">
-        <v>9.034822717385589</v>
+        <v>13.76889935199338</v>
       </c>
       <c r="D3">
-        <v>12.88138324503198</v>
+        <v>8.236498183978661</v>
       </c>
       <c r="E3">
-        <v>12.55492113915233</v>
+        <v>7.205889019131294</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>57.85729736146605</v>
+        <v>45.98853361876888</v>
       </c>
       <c r="H3">
-        <v>21.4561897580185</v>
+        <v>14.09836409585247</v>
       </c>
       <c r="I3">
-        <v>32.42360694753853</v>
+        <v>21.46507976952998</v>
       </c>
       <c r="J3">
-        <v>7.758821537352147</v>
+        <v>4.718761940295082</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.87212774838779</v>
+        <v>9.017208458778448</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.19232851165093</v>
+        <v>13.19275479465393</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.68629876282057</v>
+        <v>22.4644836807254</v>
       </c>
       <c r="C4">
-        <v>8.781396656597179</v>
+        <v>13.09561606896944</v>
       </c>
       <c r="D4">
-        <v>12.88933671721171</v>
+        <v>8.143983147826326</v>
       </c>
       <c r="E4">
-        <v>12.57313491652429</v>
+        <v>7.229536684529683</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.80877182782097</v>
+        <v>45.00680329176595</v>
       </c>
       <c r="H4">
-        <v>21.4830778761529</v>
+        <v>13.99512112889491</v>
       </c>
       <c r="I4">
-        <v>32.47760160799495</v>
+        <v>21.37167361855619</v>
       </c>
       <c r="J4">
-        <v>7.758608764314492</v>
+        <v>4.714189356412247</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.87222642756381</v>
+        <v>8.873524043493111</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.24020280808434</v>
+        <v>13.36445236953224</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.60321467199493</v>
+        <v>22.05996141591264</v>
       </c>
       <c r="C5">
-        <v>8.676541264259358</v>
+        <v>12.81259119389465</v>
       </c>
       <c r="D5">
-        <v>12.89314348222514</v>
+        <v>8.107348904944145</v>
       </c>
       <c r="E5">
-        <v>12.58087436286751</v>
+        <v>7.239825843897399</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>57.79333603968338</v>
+        <v>44.61391924525359</v>
       </c>
       <c r="H5">
-        <v>21.49514907700746</v>
+        <v>13.95595631969038</v>
       </c>
       <c r="I5">
-        <v>32.5013750873497</v>
+        <v>21.33867873381814</v>
       </c>
       <c r="J5">
-        <v>7.758535841523546</v>
+        <v>4.712377168484382</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.87286787631525</v>
+        <v>8.815716984587176</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.2602136138299</v>
+        <v>13.435088339299</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.58947804254973</v>
+        <v>21.99225768161913</v>
       </c>
       <c r="C6">
-        <v>8.659039811088157</v>
+        <v>12.76506920214712</v>
       </c>
       <c r="D6">
-        <v>12.89380975058731</v>
+        <v>8.101330356814501</v>
       </c>
       <c r="E6">
-        <v>12.58217866356745</v>
+        <v>7.241573359064665</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>57.79103499155867</v>
+        <v>44.54912289712301</v>
       </c>
       <c r="H6">
-        <v>21.49722068777143</v>
+        <v>13.94962585987509</v>
       </c>
       <c r="I6">
-        <v>32.50542938869462</v>
+        <v>21.33349943470954</v>
       </c>
       <c r="J6">
-        <v>7.758524565271019</v>
+        <v>4.712079237951826</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.8730107245549</v>
+        <v>8.806164565316944</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.26356674479214</v>
+        <v>13.44685930553665</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.68517434301214</v>
+        <v>22.45906409475358</v>
       </c>
       <c r="C7">
-        <v>8.779988711359342</v>
+        <v>13.0918342872667</v>
       </c>
       <c r="D7">
-        <v>12.88938576650964</v>
+        <v>8.143484761604636</v>
       </c>
       <c r="E7">
-        <v>12.57323800848752</v>
+        <v>7.229672823964911</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.80854608735096</v>
+        <v>45.00147528459761</v>
       </c>
       <c r="H7">
-        <v>21.4832361658786</v>
+        <v>13.99458129113346</v>
       </c>
       <c r="I7">
-        <v>32.47791506628877</v>
+        <v>21.37120841527218</v>
       </c>
       <c r="J7">
-        <v>7.758607725039661</v>
+        <v>4.714164714369192</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.87223264291655</v>
+        <v>8.872741356899281</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.2404706472893</v>
+        <v>13.36540221487351</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.11539063167996</v>
+        <v>24.43954770823501</v>
       </c>
       <c r="C8">
-        <v>9.299367966786628</v>
+        <v>14.45807208701779</v>
       </c>
       <c r="D8">
-        <v>12.87483007720729</v>
+        <v>8.338850719883558</v>
       </c>
       <c r="E8">
-        <v>12.53656816474569</v>
+        <v>7.182925569967975</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>57.92390197579967</v>
+        <v>47.05990252171388</v>
       </c>
       <c r="H8">
-        <v>21.43131408511101</v>
+        <v>14.21873452662351</v>
       </c>
       <c r="I8">
-        <v>32.37205783109874</v>
+        <v>21.5827170470814</v>
       </c>
       <c r="J8">
-        <v>7.759095702843998</v>
+        <v>4.723827234658452</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.8740749779393</v>
+        <v>9.172951988183007</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.14295169043609</v>
+        <v>13.0116619208462</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.98072505451243</v>
+        <v>28.02564969546151</v>
       </c>
       <c r="C9">
-        <v>10.25635514517077</v>
+        <v>16.87280552675545</v>
       </c>
       <c r="D9">
-        <v>12.86413922800951</v>
+        <v>8.755220441552066</v>
       </c>
       <c r="E9">
-        <v>12.47463011593616</v>
+        <v>7.112997984497656</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>58.28657524292148</v>
+        <v>51.30420812317995</v>
       </c>
       <c r="H9">
-        <v>21.36486311766885</v>
+        <v>14.75697721320618</v>
       </c>
       <c r="I9">
-        <v>32.22078449610242</v>
+        <v>22.17452260729243</v>
       </c>
       <c r="J9">
-        <v>7.760487775990218</v>
+        <v>4.744711286199232</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.89657753144136</v>
+        <v>9.781931754689968</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.96740247423269</v>
+        <v>12.33447936613214</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.62358602438325</v>
+        <v>30.5275954788757</v>
       </c>
       <c r="C10">
-        <v>10.91475053106018</v>
+        <v>18.49352113189201</v>
       </c>
       <c r="D10">
-        <v>12.8671611239164</v>
+        <v>9.081234497281066</v>
       </c>
       <c r="E10">
-        <v>12.43517351206187</v>
+        <v>7.075930130694276</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>58.63546304878776</v>
+        <v>54.53937512450401</v>
       </c>
       <c r="H10">
-        <v>21.33775714504614</v>
+        <v>15.21804379482231</v>
       </c>
       <c r="I10">
-        <v>32.14431762631899</v>
+        <v>22.73079747462171</v>
       </c>
       <c r="J10">
-        <v>7.761776387787359</v>
+        <v>4.761542413560367</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.92454350081534</v>
+        <v>10.23970094297919</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.84786641366795</v>
+        <v>11.84275137987407</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.9163033614521</v>
+        <v>31.66949883275242</v>
       </c>
       <c r="C11">
-        <v>11.20336999273585</v>
+        <v>19.19941891711908</v>
       </c>
       <c r="D11">
-        <v>12.87089257801021</v>
+        <v>9.233937889882831</v>
       </c>
       <c r="E11">
-        <v>12.41853103853058</v>
+        <v>7.062432397199212</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.8118212548215</v>
+        <v>56.03590526657231</v>
       </c>
       <c r="H11">
-        <v>21.33016872009316</v>
+        <v>15.4432496800587</v>
       </c>
       <c r="I11">
-        <v>32.1171271558448</v>
+        <v>23.01316154748088</v>
       </c>
       <c r="J11">
-        <v>7.762420485991645</v>
+        <v>4.769601443327753</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.93972550511064</v>
+        <v>10.44992908893209</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.79550992275061</v>
+        <v>11.61924865302997</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.02708360260816</v>
+        <v>32.09497281154788</v>
       </c>
       <c r="C12">
-        <v>11.3110162684026</v>
+        <v>19.4623857494215</v>
       </c>
       <c r="D12">
-        <v>12.87264370058922</v>
+        <v>9.292402803874571</v>
       </c>
       <c r="E12">
-        <v>12.41241637544836</v>
+        <v>7.057828942275379</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>58.88111181519331</v>
+        <v>56.60623906740418</v>
       </c>
       <c r="H12">
-        <v>21.32797880663199</v>
+        <v>15.53085842408563</v>
       </c>
       <c r="I12">
-        <v>32.1079278334711</v>
+        <v>23.12454647698529</v>
       </c>
       <c r="J12">
-        <v>7.762672722467371</v>
+        <v>4.772718653660749</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.94582582950173</v>
+        <v>10.52981229243368</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.77597254267955</v>
+        <v>11.534542120502</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.00322965054428</v>
+        <v>32.00364472345041</v>
       </c>
       <c r="C13">
-        <v>11.28790717202763</v>
+        <v>19.40594133021266</v>
       </c>
       <c r="D13">
-        <v>12.87225154260409</v>
+        <v>9.279782716937572</v>
       </c>
       <c r="E13">
-        <v>12.41372494558297</v>
+        <v>7.058797385305902</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>58.86607785722846</v>
+        <v>56.48324393355525</v>
       </c>
       <c r="H13">
-        <v>21.32842001354868</v>
+        <v>15.51188500629544</v>
       </c>
       <c r="I13">
-        <v>32.10986020178239</v>
+        <v>23.10035538532884</v>
       </c>
       <c r="J13">
-        <v>7.762618028260106</v>
+        <v>4.772044265602689</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.94449643787846</v>
+        <v>10.51259587143615</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.78016744634205</v>
+        <v>11.55279001139364</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.92541922265396</v>
+        <v>31.70464073920856</v>
       </c>
       <c r="C14">
-        <v>11.21225956395454</v>
+        <v>19.22113932948095</v>
       </c>
       <c r="D14">
-        <v>12.87102987311166</v>
+        <v>9.238734954590615</v>
       </c>
       <c r="E14">
-        <v>12.41802422639034</v>
+        <v>7.062043344566058</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>58.81747176469646</v>
+        <v>56.08275349604833</v>
       </c>
       <c r="H14">
-        <v>21.32997484426881</v>
+        <v>15.45041001373566</v>
       </c>
       <c r="I14">
-        <v>32.11634830683986</v>
+        <v>23.02223443509844</v>
       </c>
       <c r="J14">
-        <v>7.762441070657903</v>
+        <v>4.769856539952348</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.94022035884974</v>
+        <v>10.45649565391893</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.79389679095485</v>
+        <v>11.61228181417835</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.87774649122048</v>
+        <v>31.52059444786026</v>
       </c>
       <c r="C15">
-        <v>11.16570642429924</v>
+        <v>19.10738273070331</v>
       </c>
       <c r="D15">
-        <v>12.8703255691297</v>
+        <v>9.213675608909631</v>
       </c>
       <c r="E15">
-        <v>12.42068206380045</v>
+        <v>7.064098476064469</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.78802471381373</v>
+        <v>55.83791788059804</v>
       </c>
       <c r="H15">
-        <v>21.33101630149442</v>
+        <v>15.41306125329221</v>
       </c>
       <c r="I15">
-        <v>32.12046547789706</v>
+        <v>22.9749713207639</v>
       </c>
       <c r="J15">
-        <v>7.762333764019592</v>
+        <v>4.76852525691996</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.93764679725113</v>
+        <v>10.42216823812608</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.80234398102623</v>
+        <v>11.64870994703097</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.60445276208107</v>
+        <v>30.45198738464762</v>
       </c>
       <c r="C16">
-        <v>10.89566218421843</v>
+        <v>18.44677190858732</v>
       </c>
       <c r="D16">
-        <v>12.86696462498597</v>
+        <v>9.071343929107529</v>
       </c>
       <c r="E16">
-        <v>12.43628739355279</v>
+        <v>7.076881946264554</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>58.62429026231212</v>
+        <v>54.44207577660794</v>
       </c>
       <c r="H16">
-        <v>21.33834864738351</v>
+        <v>15.20364597435388</v>
       </c>
       <c r="I16">
-        <v>32.14624784924665</v>
+        <v>22.71295486838794</v>
       </c>
       <c r="J16">
-        <v>7.761735459947705</v>
+        <v>4.76102445967291</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.92360061509464</v>
+        <v>10.22600079665379</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.851328553553</v>
+        <v>11.85735344520306</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43679098628152</v>
+        <v>29.7838614278261</v>
       </c>
       <c r="C17">
-        <v>10.72714778444065</v>
+        <v>18.03358904249851</v>
       </c>
       <c r="D17">
-        <v>12.86550591327937</v>
+        <v>8.985157568731671</v>
       </c>
       <c r="E17">
-        <v>12.44619510809074</v>
+        <v>7.085602345362191</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>58.52834439065246</v>
+        <v>53.59214229886926</v>
       </c>
       <c r="H17">
-        <v>21.34406273297418</v>
+        <v>15.07920900435232</v>
       </c>
       <c r="I17">
-        <v>32.1640133682178</v>
+        <v>22.55989523337638</v>
       </c>
       <c r="J17">
-        <v>7.761383252822846</v>
+        <v>4.756531122822673</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.91561212381071</v>
+        <v>10.10615575950512</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.88189540466576</v>
+        <v>11.98533095776329</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.34038853955555</v>
+        <v>29.41281047378919</v>
       </c>
       <c r="C18">
-        <v>10.62920198981162</v>
+        <v>17.79297304247584</v>
       </c>
       <c r="D18">
-        <v>12.86488879199569</v>
+        <v>8.935998658435503</v>
       </c>
       <c r="E18">
-        <v>12.45201676404613</v>
+        <v>7.090933218221528</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.47482201459445</v>
+        <v>53.10561119404436</v>
       </c>
       <c r="H18">
-        <v>21.34779560016155</v>
+        <v>15.00908509051512</v>
       </c>
       <c r="I18">
-        <v>32.174946197564</v>
+        <v>22.47460333021099</v>
       </c>
       <c r="J18">
-        <v>7.76118612236514</v>
+        <v>4.75398405037214</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.91124908519125</v>
+        <v>10.03741109473918</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.89966698453852</v>
+        <v>12.05896425302283</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.30775710693203</v>
+        <v>29.28885941750893</v>
       </c>
       <c r="C19">
-        <v>10.59586661292076</v>
+        <v>17.71099057975654</v>
       </c>
       <c r="D19">
-        <v>12.86471797658683</v>
+        <v>8.919425149907944</v>
       </c>
       <c r="E19">
-        <v>12.45400901437385</v>
+        <v>7.092791588248204</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>58.45698674984826</v>
+        <v>52.94127988655837</v>
       </c>
       <c r="H19">
-        <v>21.34913607518537</v>
+        <v>14.98558814858258</v>
       </c>
       <c r="I19">
-        <v>32.1787704352262</v>
+        <v>22.44618891503901</v>
       </c>
       <c r="J19">
-        <v>7.761120313259245</v>
+        <v>4.753127860034289</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.90981170784202</v>
+        <v>10.01416797880409</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.90571687953023</v>
+        <v>12.08390215886027</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4546363106494</v>
+        <v>29.85546742267584</v>
       </c>
       <c r="C20">
-        <v>10.7451927089479</v>
+        <v>18.07787866025704</v>
       </c>
       <c r="D20">
-        <v>12.86563823595396</v>
+        <v>8.994289457794121</v>
       </c>
       <c r="E20">
-        <v>12.44512768778163</v>
+        <v>7.084641262377053</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>58.53838606710583</v>
+        <v>53.68237812156013</v>
       </c>
       <c r="H20">
-        <v>21.34340825753504</v>
+        <v>15.09230484356104</v>
       </c>
       <c r="I20">
-        <v>32.16204820558388</v>
+        <v>22.57590296003862</v>
       </c>
       <c r="J20">
-        <v>7.761420181810502</v>
+        <v>4.757005526253105</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.9164385466614</v>
+        <v>10.1188942285393</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.87862182490372</v>
+        <v>11.97170572297447</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.94827663191816</v>
+        <v>31.79265216219473</v>
       </c>
       <c r="C21">
-        <v>11.23452440945133</v>
+        <v>19.27553654043614</v>
       </c>
       <c r="D21">
-        <v>12.87137953838649</v>
+        <v>9.250774234605567</v>
       </c>
       <c r="E21">
-        <v>12.41675633837927</v>
+        <v>7.061075942198604</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.83168076083252</v>
+        <v>56.20028771875825</v>
       </c>
       <c r="H21">
-        <v>21.32949958626067</v>
+        <v>15.46840264611649</v>
       </c>
       <c r="I21">
-        <v>32.11441277959464</v>
+        <v>23.0450574153431</v>
       </c>
       <c r="J21">
-        <v>7.762492821274226</v>
+        <v>4.770497287087303</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.94146683627403</v>
+        <v>10.47296623538516</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.7898563231596</v>
+        <v>11.59481038542109</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.27047097139868</v>
+        <v>33.01837284446903</v>
       </c>
       <c r="C22">
-        <v>11.54469753567673</v>
+        <v>20.03306201485322</v>
       </c>
       <c r="D22">
-        <v>12.87710202237926</v>
+        <v>9.422137296836869</v>
       </c>
       <c r="E22">
-        <v>12.39930662002556</v>
+        <v>7.048647581870393</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.03796453796431</v>
+        <v>57.86715396578524</v>
       </c>
       <c r="H22">
-        <v>21.32439492821003</v>
+        <v>15.72783038351401</v>
       </c>
       <c r="I22">
-        <v>32.08967717166887</v>
+        <v>23.37779364972919</v>
       </c>
       <c r="J22">
-        <v>7.763242411656261</v>
+        <v>4.779700564351756</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.95987012668572</v>
+        <v>10.70597510907205</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.73352598731074</v>
+        <v>11.34802098990144</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.098582932229</v>
+        <v>32.3678037757048</v>
       </c>
       <c r="C23">
-        <v>11.38005773619246</v>
+        <v>19.63100271881781</v>
       </c>
       <c r="D23">
-        <v>12.87386786402476</v>
+        <v>9.330331730616722</v>
       </c>
       <c r="E23">
-        <v>12.40852002031763</v>
+        <v>7.05500026448746</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.92654231986856</v>
+        <v>56.97552221954227</v>
       </c>
       <c r="H23">
-        <v>21.32675421985647</v>
+        <v>15.58808507566277</v>
       </c>
       <c r="I23">
-        <v>32.10229215935333</v>
+        <v>23.19773271466705</v>
       </c>
       <c r="J23">
-        <v>7.762837896593208</v>
+        <v>4.774750553299855</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.94986165871986</v>
+        <v>10.58146799704314</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.76343712128445</v>
+        <v>11.47981494799228</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.44656846711068</v>
+        <v>29.82310947642137</v>
       </c>
       <c r="C24">
-        <v>10.73703790833321</v>
+        <v>18.05786490427067</v>
       </c>
       <c r="D24">
-        <v>12.8655777228478</v>
+        <v>8.990159714003305</v>
       </c>
       <c r="E24">
-        <v>12.44560987731505</v>
+        <v>7.085074781154201</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>58.53384112014835</v>
+        <v>53.64157594636359</v>
       </c>
       <c r="H24">
-        <v>21.34370275123884</v>
+        <v>15.08637981016028</v>
       </c>
       <c r="I24">
-        <v>32.16293441572552</v>
+        <v>22.56865746246819</v>
       </c>
       <c r="J24">
-        <v>7.761403469527539</v>
+        <v>4.756790936243895</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.91606420537131</v>
+        <v>10.11313468025843</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.88010119249982</v>
+        <v>11.97786550583639</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.74494235413925</v>
+        <v>27.0880562052236</v>
       </c>
       <c r="C25">
-        <v>10.00485978997667</v>
+        <v>16.24709440702113</v>
       </c>
       <c r="D25">
-        <v>12.86512014231033</v>
+        <v>8.639045335777514</v>
       </c>
       <c r="E25">
-        <v>12.49032156565031</v>
+        <v>7.129484156140927</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>58.17391302280183</v>
+        <v>50.13500338044895</v>
       </c>
       <c r="H25">
-        <v>21.37903643645789</v>
+        <v>14.60023994484983</v>
       </c>
       <c r="I25">
-        <v>32.25564249555946</v>
+        <v>21.99406856175901</v>
       </c>
       <c r="J25">
-        <v>7.760064538808736</v>
+        <v>4.738824686991572</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.88847511389357</v>
+        <v>9.615247692613002</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.01322663798352</v>
+        <v>12.51632490885213</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.95632273058639</v>
+        <v>17.83652436449692</v>
       </c>
       <c r="C2">
-        <v>14.81008618645604</v>
+        <v>13.48098648962425</v>
       </c>
       <c r="D2">
-        <v>8.394045341091985</v>
+        <v>10.98120611391441</v>
       </c>
       <c r="E2">
-        <v>7.171694876714223</v>
+        <v>11.36944840096407</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.63217647740198</v>
+        <v>25.75294705459628</v>
       </c>
       <c r="H2">
-        <v>14.28594246818985</v>
+        <v>1.789762060911053</v>
       </c>
       <c r="I2">
-        <v>21.65149999396816</v>
+        <v>2.772577368640955</v>
       </c>
       <c r="J2">
-        <v>4.726566059967585</v>
+        <v>9.43030665325557</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.54167859576727</v>
       </c>
       <c r="L2">
-        <v>9.255753272078312</v>
+        <v>5.962886860772391</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.9170775190871</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.21403635735397</v>
+      </c>
+      <c r="P2">
+        <v>12.38143759166375</v>
+      </c>
+      <c r="Q2">
+        <v>15.90767682173037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.43514177775564</v>
+        <v>16.67001707937104</v>
       </c>
       <c r="C3">
-        <v>13.76889935199338</v>
+        <v>12.65716085054417</v>
       </c>
       <c r="D3">
-        <v>8.236498183978661</v>
+        <v>10.61584588057191</v>
       </c>
       <c r="E3">
-        <v>7.205889019131294</v>
+        <v>11.05563979636975</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.98853361876888</v>
+        <v>24.94492002164084</v>
       </c>
       <c r="H3">
-        <v>14.09836409585247</v>
+        <v>2.014544119902053</v>
       </c>
       <c r="I3">
-        <v>21.46507976952998</v>
+        <v>2.631051347261232</v>
       </c>
       <c r="J3">
-        <v>4.718761940295082</v>
+        <v>9.376299133301927</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.59028162195137</v>
       </c>
       <c r="L3">
-        <v>9.017208458778448</v>
+        <v>5.880238100445571</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.19275479465393</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.43318912179458</v>
+      </c>
+      <c r="P3">
+        <v>12.46416526576087</v>
+      </c>
+      <c r="Q3">
+        <v>15.66528507719051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.4644836807254</v>
+        <v>15.90775061417222</v>
       </c>
       <c r="C4">
-        <v>13.09561606896944</v>
+        <v>12.12644257090375</v>
       </c>
       <c r="D4">
-        <v>8.143983147826326</v>
+        <v>10.38731118543807</v>
       </c>
       <c r="E4">
-        <v>7.229536684529683</v>
+        <v>10.85821496796997</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45.00680329176595</v>
+        <v>24.44631447413367</v>
       </c>
       <c r="H4">
-        <v>13.99512112889491</v>
+        <v>2.157689107508842</v>
       </c>
       <c r="I4">
-        <v>21.37167361855619</v>
+        <v>2.541644209571086</v>
       </c>
       <c r="J4">
-        <v>4.714189356412247</v>
+        <v>9.345968496470798</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.62449183163791</v>
       </c>
       <c r="L4">
-        <v>8.873524043493111</v>
+        <v>5.827823716961444</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.36445236953224</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.93249170977051</v>
+      </c>
+      <c r="P4">
+        <v>12.51735615664026</v>
+      </c>
+      <c r="Q4">
+        <v>15.52050012958199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.05996141591264</v>
+        <v>15.58041805797172</v>
       </c>
       <c r="C5">
-        <v>12.81259119389465</v>
+        <v>11.91342198252363</v>
       </c>
       <c r="D5">
-        <v>8.107348904944145</v>
+        <v>10.29313584945425</v>
       </c>
       <c r="E5">
-        <v>7.239825843897399</v>
+        <v>10.77640762544363</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.61391924525359</v>
+        <v>24.23111098368184</v>
       </c>
       <c r="H5">
-        <v>13.95595631969038</v>
+        <v>2.217545570978532</v>
       </c>
       <c r="I5">
-        <v>21.33867873381814</v>
+        <v>2.505261988568796</v>
       </c>
       <c r="J5">
-        <v>4.712377168484382</v>
+        <v>9.332361974664899</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.63492870222654</v>
       </c>
       <c r="L5">
-        <v>8.815716984587176</v>
+        <v>5.80591084370239</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.435088339299</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.72333053388055</v>
+      </c>
+      <c r="P5">
+        <v>12.54024190259411</v>
+      </c>
+      <c r="Q5">
+        <v>15.45765930430169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.99225768161913</v>
+        <v>15.51913617048417</v>
       </c>
       <c r="C6">
-        <v>12.76506920214712</v>
+        <v>11.88926202063079</v>
       </c>
       <c r="D6">
-        <v>8.101330356814501</v>
+        <v>10.27731790627504</v>
       </c>
       <c r="E6">
-        <v>7.241573359064665</v>
+        <v>10.76248249396392</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.54912289712301</v>
+        <v>24.18109073085147</v>
       </c>
       <c r="H6">
-        <v>13.94962585987509</v>
+        <v>2.227828714150719</v>
       </c>
       <c r="I6">
-        <v>21.33349943470954</v>
+        <v>2.50024588688275</v>
       </c>
       <c r="J6">
-        <v>4.712079237951826</v>
+        <v>9.327760846623125</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.63114612250046</v>
       </c>
       <c r="L6">
-        <v>8.806164565316944</v>
+        <v>5.802085167679269</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.44685930553665</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.68834747389107</v>
+      </c>
+      <c r="P6">
+        <v>12.5448379520328</v>
+      </c>
+      <c r="Q6">
+        <v>15.44130938668452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.45906409475358</v>
+        <v>15.88678511657297</v>
       </c>
       <c r="C7">
-        <v>13.0918342872667</v>
+        <v>12.15453628413536</v>
       </c>
       <c r="D7">
-        <v>8.143484761604636</v>
+        <v>10.38570758744566</v>
       </c>
       <c r="E7">
-        <v>7.229672823964911</v>
+        <v>10.85638409424754</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>45.00147528459761</v>
+        <v>24.40484324822019</v>
       </c>
       <c r="H7">
-        <v>13.99458129113346</v>
+        <v>2.159201290713683</v>
       </c>
       <c r="I7">
-        <v>21.37120841527218</v>
+        <v>2.543660132635471</v>
       </c>
       <c r="J7">
-        <v>4.714164714369192</v>
+        <v>9.339290753061727</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.6093932132584</v>
       </c>
       <c r="L7">
-        <v>8.872741356899281</v>
+        <v>5.827096898322666</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.36540221487351</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.92983215015674</v>
+      </c>
+      <c r="P7">
+        <v>12.51980548994377</v>
+      </c>
+      <c r="Q7">
+        <v>15.50340548935877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.43954770823501</v>
+        <v>17.42357256224253</v>
       </c>
       <c r="C8">
-        <v>14.45807208701779</v>
+        <v>13.24010375573788</v>
       </c>
       <c r="D8">
-        <v>8.338850719883558</v>
+        <v>10.85576172799048</v>
       </c>
       <c r="E8">
-        <v>7.182925569967975</v>
+        <v>11.26137892423315</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.05990252171388</v>
+        <v>25.42592976310709</v>
       </c>
       <c r="H8">
-        <v>14.21873452662351</v>
+        <v>1.867099613986499</v>
       </c>
       <c r="I8">
-        <v>21.5827170470814</v>
+        <v>2.726984207897967</v>
       </c>
       <c r="J8">
-        <v>4.723827234658452</v>
+        <v>9.40259828114376</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.53737745282424</v>
       </c>
       <c r="L8">
-        <v>9.172951988183007</v>
+        <v>5.934197415548029</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.0116619208462</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.94946178243647</v>
+      </c>
+      <c r="P8">
+        <v>12.41258888460032</v>
+      </c>
+      <c r="Q8">
+        <v>15.80222451294342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.02564969546151</v>
+        <v>20.10022813409393</v>
       </c>
       <c r="C9">
-        <v>16.87280552675545</v>
+        <v>15.12081756556166</v>
       </c>
       <c r="D9">
-        <v>8.755220441552066</v>
+        <v>11.74018560817396</v>
       </c>
       <c r="E9">
-        <v>7.112997984497656</v>
+        <v>12.01657244090189</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.30420812317995</v>
+        <v>27.46309054573351</v>
       </c>
       <c r="H9">
-        <v>14.75697721320618</v>
+        <v>1.782643520700779</v>
       </c>
       <c r="I9">
-        <v>22.17452260729243</v>
+        <v>3.063999544999572</v>
       </c>
       <c r="J9">
-        <v>4.744711286199232</v>
+        <v>9.561050251473599</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.45982339448033</v>
       </c>
       <c r="L9">
-        <v>9.781931754689968</v>
+        <v>6.13179607611859</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.33447936613214</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.77391934874256</v>
+      </c>
+      <c r="P9">
+        <v>12.21744503150221</v>
+      </c>
+      <c r="Q9">
+        <v>16.44715290526874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.5275954788757</v>
+        <v>21.82140265258752</v>
       </c>
       <c r="C10">
-        <v>18.49352113189201</v>
+        <v>16.35467680492435</v>
       </c>
       <c r="D10">
-        <v>9.081234497281066</v>
+        <v>12.25311056511084</v>
       </c>
       <c r="E10">
-        <v>7.075930130694276</v>
+        <v>12.3690734356821</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.53937512450401</v>
+        <v>28.73119810821259</v>
       </c>
       <c r="H10">
-        <v>15.21804379482231</v>
+        <v>2.131567866493734</v>
       </c>
       <c r="I10">
-        <v>22.73079747462171</v>
+        <v>3.297097098988665</v>
       </c>
       <c r="J10">
-        <v>4.761542413560367</v>
+        <v>9.65622947875425</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.37281473597619</v>
       </c>
       <c r="L10">
-        <v>10.23970094297919</v>
+        <v>6.223729672176979</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.84275137987407</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.87455184150103</v>
+      </c>
+      <c r="P10">
+        <v>12.10188826637778</v>
+      </c>
+      <c r="Q10">
+        <v>16.85038172656121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.66949883275242</v>
+        <v>22.3684599151203</v>
       </c>
       <c r="C11">
-        <v>19.19941891711908</v>
+        <v>16.59660609622128</v>
       </c>
       <c r="D11">
-        <v>9.233937889882831</v>
+        <v>11.54991921958358</v>
       </c>
       <c r="E11">
-        <v>7.062432397199212</v>
+        <v>11.08876997526396</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.03590526657231</v>
+        <v>27.6946172743148</v>
       </c>
       <c r="H11">
-        <v>15.4432496800587</v>
+        <v>2.974749201779059</v>
       </c>
       <c r="I11">
-        <v>23.01316154748088</v>
+        <v>3.367207574259023</v>
       </c>
       <c r="J11">
-        <v>4.769601443327753</v>
+        <v>9.409139678408138</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.90649853046529</v>
       </c>
       <c r="L11">
-        <v>10.44992908893209</v>
+        <v>5.958797960848425</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.61924865302997</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.2608403608669</v>
+      </c>
+      <c r="P11">
+        <v>12.19063654688461</v>
+      </c>
+      <c r="Q11">
+        <v>16.32094694179871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.09497281154788</v>
+        <v>22.50035150139136</v>
       </c>
       <c r="C12">
-        <v>19.4623857494215</v>
+        <v>16.5107067790809</v>
       </c>
       <c r="D12">
-        <v>9.292402803874571</v>
+        <v>10.84565705415553</v>
       </c>
       <c r="E12">
-        <v>7.057828942275379</v>
+        <v>10.04697232745209</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.60623906740418</v>
+        <v>26.58126593167867</v>
       </c>
       <c r="H12">
-        <v>15.53085842408563</v>
+        <v>4.209547135774553</v>
       </c>
       <c r="I12">
-        <v>23.12454647698529</v>
+        <v>3.376612399749738</v>
       </c>
       <c r="J12">
-        <v>4.772718653660749</v>
+        <v>9.184983633569566</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.55330778835536</v>
       </c>
       <c r="L12">
-        <v>10.52981229243368</v>
+        <v>5.842008091127923</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.534542120502</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.50258613385335</v>
+      </c>
+      <c r="P12">
+        <v>12.29844918441316</v>
+      </c>
+      <c r="Q12">
+        <v>15.80041742614353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.00364472345041</v>
+        <v>22.30672481703121</v>
       </c>
       <c r="C13">
-        <v>19.40594133021266</v>
+        <v>16.20170598534403</v>
       </c>
       <c r="D13">
-        <v>9.279782716937572</v>
+        <v>10.08662313347805</v>
       </c>
       <c r="E13">
-        <v>7.058797385305902</v>
+        <v>9.154644743313309</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.48324393355525</v>
+        <v>25.26330390405147</v>
       </c>
       <c r="H13">
-        <v>15.51188500629544</v>
+        <v>5.518320421190121</v>
       </c>
       <c r="I13">
-        <v>23.10035538532884</v>
+        <v>3.343478027421751</v>
       </c>
       <c r="J13">
-        <v>4.772044265602689</v>
+        <v>8.954059992961337</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.24334929839797</v>
       </c>
       <c r="L13">
-        <v>10.51259587143615</v>
+        <v>5.83449868991281</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.55279001139364</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.566596270585</v>
+      </c>
+      <c r="P13">
+        <v>12.42653434910087</v>
+      </c>
+      <c r="Q13">
+        <v>15.22543432072688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.70464073920856</v>
+        <v>22.01753165124426</v>
       </c>
       <c r="C14">
-        <v>19.22113932948095</v>
+        <v>15.88752802832156</v>
       </c>
       <c r="D14">
-        <v>9.238734954590615</v>
+        <v>9.528448855573799</v>
       </c>
       <c r="E14">
-        <v>7.062043344566058</v>
+        <v>8.646777575392447</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.08275349604833</v>
+        <v>24.2274154090919</v>
       </c>
       <c r="H14">
-        <v>15.45041001373566</v>
+        <v>6.460024854481475</v>
       </c>
       <c r="I14">
-        <v>23.02223443509844</v>
+        <v>3.302101496817818</v>
       </c>
       <c r="J14">
-        <v>4.769856539952348</v>
+        <v>8.788081310693869</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.04506465479522</v>
       </c>
       <c r="L14">
-        <v>10.45649565391893</v>
+        <v>5.894827070197685</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.61228181417835</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.81916565118135</v>
+      </c>
+      <c r="P14">
+        <v>12.52610267187489</v>
+      </c>
+      <c r="Q14">
+        <v>14.7929405668478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.52059444786026</v>
+        <v>21.87113812033071</v>
       </c>
       <c r="C15">
-        <v>19.10738273070331</v>
+        <v>15.77147184651306</v>
       </c>
       <c r="D15">
-        <v>9.213675608909631</v>
+        <v>9.380795644700854</v>
       </c>
       <c r="E15">
-        <v>7.064098476064469</v>
+        <v>8.540997944360312</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>55.83791788059804</v>
+        <v>23.91970729665692</v>
       </c>
       <c r="H15">
-        <v>15.41306125329221</v>
+        <v>6.674181047386782</v>
       </c>
       <c r="I15">
-        <v>22.9749713207639</v>
+        <v>3.283844584557356</v>
       </c>
       <c r="J15">
-        <v>4.76852525691996</v>
+        <v>8.744890044681016</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.0018837566168</v>
       </c>
       <c r="L15">
-        <v>10.42216823812608</v>
+        <v>5.914570609120451</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.64870994703097</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.59813164445986</v>
+      </c>
+      <c r="P15">
+        <v>12.55409238944677</v>
+      </c>
+      <c r="Q15">
+        <v>14.67208255036264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.45198738464762</v>
+        <v>21.18707636532655</v>
       </c>
       <c r="C16">
-        <v>18.44677190858732</v>
+        <v>15.32124113812776</v>
       </c>
       <c r="D16">
-        <v>9.071343929107529</v>
+        <v>9.288806714081518</v>
       </c>
       <c r="E16">
-        <v>7.076881946264554</v>
+        <v>8.550339572087781</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>54.44207577660794</v>
+        <v>23.56063957140842</v>
       </c>
       <c r="H16">
-        <v>15.20364597435388</v>
+        <v>6.45483284486932</v>
       </c>
       <c r="I16">
-        <v>22.71295486838794</v>
+        <v>3.193295817438604</v>
       </c>
       <c r="J16">
-        <v>4.76102445967291</v>
+        <v>8.744791425256802</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.09554194487934</v>
       </c>
       <c r="L16">
-        <v>10.22600079665379</v>
+        <v>5.869470910646085</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.85735344520306</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.26918684867839</v>
+      </c>
+      <c r="P16">
+        <v>12.56615124371829</v>
+      </c>
+      <c r="Q16">
+        <v>14.59259732633581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.7838614278261</v>
+        <v>20.81117108559476</v>
       </c>
       <c r="C17">
-        <v>18.03358904249851</v>
+        <v>15.14538661950238</v>
       </c>
       <c r="D17">
-        <v>8.985157568731671</v>
+        <v>9.52046173665436</v>
       </c>
       <c r="E17">
-        <v>7.085602345362191</v>
+        <v>8.80467904868731</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>53.59214229886926</v>
+        <v>23.85339342907323</v>
       </c>
       <c r="H17">
-        <v>15.07920900435232</v>
+        <v>5.706264038333893</v>
       </c>
       <c r="I17">
-        <v>22.55989523337638</v>
+        <v>3.145796474410127</v>
       </c>
       <c r="J17">
-        <v>4.756531122822673</v>
+        <v>8.833537217520737</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.2709001971887</v>
       </c>
       <c r="L17">
-        <v>10.10615575950512</v>
+        <v>5.791763033870597</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.98533095776329</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.42889186887281</v>
+      </c>
+      <c r="P17">
+        <v>12.52433398901651</v>
+      </c>
+      <c r="Q17">
+        <v>14.76527742792469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.41281047378919</v>
+        <v>20.68029753770444</v>
       </c>
       <c r="C18">
-        <v>17.79297304247584</v>
+        <v>15.17159143606479</v>
       </c>
       <c r="D18">
-        <v>8.935998658435503</v>
+        <v>10.06271261086893</v>
       </c>
       <c r="E18">
-        <v>7.090933218221528</v>
+        <v>9.416664634149789</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.10561119404436</v>
+        <v>24.76161071767405</v>
       </c>
       <c r="H18">
-        <v>15.00908509051512</v>
+        <v>4.425886091069567</v>
       </c>
       <c r="I18">
-        <v>22.47460333021099</v>
+        <v>3.128205688525847</v>
       </c>
       <c r="J18">
-        <v>4.75398405037214</v>
+        <v>9.012046562365155</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.54889782502519</v>
       </c>
       <c r="L18">
-        <v>10.03741109473918</v>
+        <v>5.742486827330024</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.05896425302283</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.02918961994052</v>
+      </c>
+      <c r="P18">
+        <v>12.43299414033703</v>
+      </c>
+      <c r="Q18">
+        <v>15.18285147357726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.28885941750893</v>
+        <v>20.73434154476567</v>
       </c>
       <c r="C19">
-        <v>17.71099057975654</v>
+        <v>15.40516638369128</v>
       </c>
       <c r="D19">
-        <v>8.919425149907944</v>
+        <v>10.81802038000357</v>
       </c>
       <c r="E19">
-        <v>7.092791588248204</v>
+        <v>10.40674106610178</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>52.94127988655837</v>
+        <v>26.02060408032572</v>
       </c>
       <c r="H19">
-        <v>14.98558814858258</v>
+        <v>3.033386563472518</v>
       </c>
       <c r="I19">
-        <v>22.44618891503901</v>
+        <v>3.145277428191651</v>
       </c>
       <c r="J19">
-        <v>4.753127860034289</v>
+        <v>9.238285242368164</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.86974519110071</v>
       </c>
       <c r="L19">
-        <v>10.01416797880409</v>
+        <v>5.816351535502781</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.08390215886027</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.92816081770716</v>
+      </c>
+      <c r="P19">
+        <v>12.32259088412033</v>
+      </c>
+      <c r="Q19">
+        <v>15.73657315577108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.85546742267584</v>
+        <v>21.34306781511299</v>
       </c>
       <c r="C20">
-        <v>18.07787866025704</v>
+        <v>16.11223714307877</v>
       </c>
       <c r="D20">
-        <v>8.994289457794121</v>
+        <v>12.11437536841706</v>
       </c>
       <c r="E20">
-        <v>7.084641262377053</v>
+        <v>12.26816888890142</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.68237812156013</v>
+        <v>28.28819330042479</v>
       </c>
       <c r="H20">
-        <v>15.09230484356104</v>
+        <v>2.037657408286118</v>
       </c>
       <c r="I20">
-        <v>22.57590296003862</v>
+        <v>3.244860268558085</v>
       </c>
       <c r="J20">
-        <v>4.757005526253105</v>
+        <v>9.609501305640409</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.34492405646501</v>
       </c>
       <c r="L20">
-        <v>10.1188942285393</v>
+        <v>6.19678752073475</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.97170572297447</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.58686122141131</v>
+      </c>
+      <c r="P20">
+        <v>12.14079005690902</v>
+      </c>
+      <c r="Q20">
+        <v>16.69320589068529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.79265216219473</v>
+        <v>22.63730442871767</v>
       </c>
       <c r="C21">
-        <v>19.27553654043614</v>
+        <v>17.0606564775789</v>
       </c>
       <c r="D21">
-        <v>9.250774234605567</v>
+        <v>12.66623867430734</v>
       </c>
       <c r="E21">
-        <v>7.061075942198604</v>
+        <v>12.80104012515516</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.20028771875825</v>
+        <v>29.55385411392444</v>
       </c>
       <c r="H21">
-        <v>15.46840264611649</v>
+        <v>2.317810707811395</v>
       </c>
       <c r="I21">
-        <v>23.0450574153431</v>
+        <v>3.425620990652551</v>
       </c>
       <c r="J21">
-        <v>4.770497287087303</v>
+        <v>9.74209825701047</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.3701697103205</v>
       </c>
       <c r="L21">
-        <v>10.47296623538516</v>
+        <v>6.335481751804371</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.59481038542109</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.59180148468947</v>
+      </c>
+      <c r="P21">
+        <v>12.03354025616846</v>
+      </c>
+      <c r="Q21">
+        <v>17.14217275029489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.01837284446903</v>
+        <v>23.44881647813753</v>
       </c>
       <c r="C22">
-        <v>20.03306201485322</v>
+        <v>17.61011726606127</v>
       </c>
       <c r="D22">
-        <v>9.422137296836869</v>
+        <v>12.96510214229429</v>
       </c>
       <c r="E22">
-        <v>7.048647581870393</v>
+        <v>13.05450080785173</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>57.86715396578524</v>
+        <v>30.31974179645581</v>
       </c>
       <c r="H22">
-        <v>15.72783038351401</v>
+        <v>2.491193977463022</v>
       </c>
       <c r="I22">
-        <v>23.37779364972919</v>
+        <v>3.536349948836512</v>
       </c>
       <c r="J22">
-        <v>4.779700564351756</v>
+        <v>9.822712749098384</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.38740306204793</v>
       </c>
       <c r="L22">
-        <v>10.70597510907205</v>
+        <v>6.401926789122451</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.34802098990144</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.16133817729767</v>
+      </c>
+      <c r="P22">
+        <v>11.96899304532391</v>
+      </c>
+      <c r="Q22">
+        <v>17.41569718999419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.3678037757048</v>
+        <v>23.03342751685578</v>
       </c>
       <c r="C23">
-        <v>19.63100271881781</v>
+        <v>17.29204369738059</v>
       </c>
       <c r="D23">
-        <v>9.330331730616722</v>
+        <v>12.80646354060595</v>
       </c>
       <c r="E23">
-        <v>7.05500026448746</v>
+        <v>12.92035750759985</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.97552221954227</v>
+        <v>29.94932815633308</v>
       </c>
       <c r="H23">
-        <v>15.58808507566277</v>
+        <v>2.399639417848687</v>
       </c>
       <c r="I23">
-        <v>23.19773271466705</v>
+        <v>3.474207914345265</v>
       </c>
       <c r="J23">
-        <v>4.774750553299855</v>
+        <v>9.786631718232266</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.39544613902318</v>
       </c>
       <c r="L23">
-        <v>10.58146799704314</v>
+        <v>6.366979759182543</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.47981494799228</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.85930285088315</v>
+      </c>
+      <c r="P23">
+        <v>11.99964719922103</v>
+      </c>
+      <c r="Q23">
+        <v>17.2866389169332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.82310947642137</v>
+        <v>21.3604957761097</v>
       </c>
       <c r="C24">
-        <v>18.05786490427067</v>
+        <v>16.08373628029577</v>
       </c>
       <c r="D24">
-        <v>8.990159714003305</v>
+        <v>12.19240331861652</v>
       </c>
       <c r="E24">
-        <v>7.085074781154201</v>
+        <v>12.39998968889568</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>53.64157594636359</v>
+        <v>28.47165770552439</v>
       </c>
       <c r="H24">
-        <v>15.08637981016028</v>
+        <v>2.044414774425227</v>
       </c>
       <c r="I24">
-        <v>22.56865746246819</v>
+        <v>3.239877488858207</v>
       </c>
       <c r="J24">
-        <v>4.756790936243895</v>
+        <v>9.644478199425068</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.40930266570398</v>
       </c>
       <c r="L24">
-        <v>10.11313468025843</v>
+        <v>6.2312980810112</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.97786550583639</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.67187552754949</v>
+      </c>
+      <c r="P24">
+        <v>12.12647451079071</v>
+      </c>
+      <c r="Q24">
+        <v>16.77655856356615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.0880562052236</v>
+        <v>19.38976811877056</v>
       </c>
       <c r="C25">
-        <v>16.24709440702113</v>
+        <v>14.68045561782205</v>
       </c>
       <c r="D25">
-        <v>8.639045335777514</v>
+        <v>11.50508052613091</v>
       </c>
       <c r="E25">
-        <v>7.129484156140927</v>
+        <v>11.81581398210134</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.13500338044895</v>
+        <v>26.85344328177169</v>
       </c>
       <c r="H25">
-        <v>14.60023994484983</v>
+        <v>1.644593923534618</v>
       </c>
       <c r="I25">
-        <v>21.99406856175901</v>
+        <v>2.97919362334518</v>
       </c>
       <c r="J25">
-        <v>4.738824686991572</v>
+        <v>9.504279356995042</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.44924125795671</v>
       </c>
       <c r="L25">
-        <v>9.615247692613002</v>
+        <v>6.07905568152918</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.51632490885213</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.2999854282659</v>
+      </c>
+      <c r="P25">
+        <v>12.27286947981867</v>
+      </c>
+      <c r="Q25">
+        <v>16.24175032959726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.83652436449692</v>
+        <v>17.60506782753429</v>
       </c>
       <c r="C2">
-        <v>13.48098648962425</v>
+        <v>13.86018578432227</v>
       </c>
       <c r="D2">
-        <v>10.98120611391441</v>
+        <v>10.97900065681773</v>
       </c>
       <c r="E2">
-        <v>11.36944840096407</v>
+        <v>11.36469639041501</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.75294705459628</v>
+        <v>24.49813991425827</v>
       </c>
       <c r="H2">
-        <v>1.789762060911053</v>
+        <v>1.788259054053764</v>
       </c>
       <c r="I2">
-        <v>2.772577368640955</v>
+        <v>2.809673667693726</v>
       </c>
       <c r="J2">
-        <v>9.43030665325557</v>
+        <v>9.777035481045738</v>
       </c>
       <c r="K2">
-        <v>13.54167859576727</v>
+        <v>13.16513680016999</v>
       </c>
       <c r="L2">
-        <v>5.962886860772391</v>
+        <v>11.64365564848632</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.864217374318644</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.960079188388249</v>
       </c>
       <c r="O2">
-        <v>15.21403635735397</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.38143759166375</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.90767682173037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.22688392558529</v>
+      </c>
+      <c r="R2">
+        <v>12.38668818959648</v>
+      </c>
+      <c r="S2">
+        <v>15.60918155008966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.67001707937104</v>
+        <v>16.48835524249348</v>
       </c>
       <c r="C3">
-        <v>12.65716085054417</v>
+        <v>12.94423700960925</v>
       </c>
       <c r="D3">
-        <v>10.61584588057191</v>
+        <v>10.61801168454885</v>
       </c>
       <c r="E3">
-        <v>11.05563979636975</v>
+        <v>11.06068925278746</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.94492002164084</v>
+        <v>23.78107550683693</v>
       </c>
       <c r="H3">
-        <v>2.014544119902053</v>
+        <v>2.003219267167012</v>
       </c>
       <c r="I3">
-        <v>2.631051347261232</v>
+        <v>2.683554976694926</v>
       </c>
       <c r="J3">
-        <v>9.376299133301927</v>
+        <v>9.707398761024841</v>
       </c>
       <c r="K3">
-        <v>13.59028162195137</v>
+        <v>13.23957750344556</v>
       </c>
       <c r="L3">
-        <v>5.880238100445571</v>
+        <v>11.79067496960558</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.836853403825278</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.883508069365738</v>
       </c>
       <c r="O3">
-        <v>14.43318912179458</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.46416526576087</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.66528507719051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.44603183760271</v>
+      </c>
+      <c r="R3">
+        <v>12.44799015528576</v>
+      </c>
+      <c r="S3">
+        <v>15.40151116500711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.90775061417222</v>
+        <v>15.75854679927517</v>
       </c>
       <c r="C4">
-        <v>12.12644257090375</v>
+        <v>12.35319072320635</v>
       </c>
       <c r="D4">
-        <v>10.38731118543807</v>
+        <v>10.39237966249759</v>
       </c>
       <c r="E4">
-        <v>10.85821496796997</v>
+        <v>10.86968873336924</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.44631447413367</v>
+        <v>23.34071291761545</v>
       </c>
       <c r="H4">
-        <v>2.157689107508842</v>
+        <v>2.140169400147391</v>
       </c>
       <c r="I4">
-        <v>2.541644209571086</v>
+        <v>2.604009248204409</v>
       </c>
       <c r="J4">
-        <v>9.345968496470798</v>
+        <v>9.665290045458462</v>
       </c>
       <c r="K4">
-        <v>13.62449183163791</v>
+        <v>13.28829546084862</v>
       </c>
       <c r="L4">
-        <v>5.827823716961444</v>
+        <v>11.88289666776716</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.841324779363787</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.834962639879021</v>
       </c>
       <c r="O4">
-        <v>13.93249170977051</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.51735615664026</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.52050012958199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.94513383321862</v>
+      </c>
+      <c r="R4">
+        <v>12.48838988806498</v>
+      </c>
+      <c r="S4">
+        <v>15.27707363677002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.58041805797172</v>
+        <v>15.4449441642343</v>
       </c>
       <c r="C5">
-        <v>11.91342198252363</v>
+        <v>12.11485148238485</v>
       </c>
       <c r="D5">
-        <v>10.29313584945425</v>
+        <v>10.29944682679593</v>
       </c>
       <c r="E5">
-        <v>10.77640762544363</v>
+        <v>10.7906100585229</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.23111098368184</v>
+        <v>23.14965371002002</v>
       </c>
       <c r="H5">
-        <v>2.217545570978532</v>
+        <v>2.197450282924986</v>
       </c>
       <c r="I5">
-        <v>2.505261988568796</v>
+        <v>2.572014552739362</v>
       </c>
       <c r="J5">
-        <v>9.332361974664899</v>
+        <v>9.646357279544535</v>
       </c>
       <c r="K5">
-        <v>13.63492870222654</v>
+        <v>13.30444179666002</v>
       </c>
       <c r="L5">
-        <v>5.80591084370239</v>
+        <v>11.91687311779458</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.845940984674751</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.814666639061317</v>
       </c>
       <c r="O5">
-        <v>13.72333053388055</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.54024190259411</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.45765930430169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.73584106759419</v>
+      </c>
+      <c r="R5">
+        <v>12.50622491169649</v>
+      </c>
+      <c r="S5">
+        <v>15.22229190499094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.51913617048417</v>
+        <v>15.38599373352751</v>
       </c>
       <c r="C6">
-        <v>11.88926202063079</v>
+        <v>12.08669480572566</v>
       </c>
       <c r="D6">
-        <v>10.27731790627504</v>
+        <v>10.28384338715521</v>
       </c>
       <c r="E6">
-        <v>10.76248249396392</v>
+        <v>10.77715483496208</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.18109073085147</v>
+        <v>23.1035227601159</v>
       </c>
       <c r="H6">
-        <v>2.227828714150719</v>
+        <v>2.207292969509778</v>
       </c>
       <c r="I6">
-        <v>2.50024588688275</v>
+        <v>2.56809833634199</v>
       </c>
       <c r="J6">
-        <v>9.327760846623125</v>
+        <v>9.640851244718693</v>
       </c>
       <c r="K6">
-        <v>13.63114612250046</v>
+        <v>13.30174753681409</v>
       </c>
       <c r="L6">
-        <v>5.802085167679269</v>
+        <v>11.91754235364232</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.843927266031272</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.811118169989954</v>
       </c>
       <c r="O6">
-        <v>13.68834747389107</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.5448379520328</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.44130938668452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.70083235566699</v>
+      </c>
+      <c r="R6">
+        <v>12.51007801846457</v>
+      </c>
+      <c r="S6">
+        <v>15.20729795182583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.88678511657297</v>
+        <v>15.73236918896309</v>
       </c>
       <c r="C7">
-        <v>12.15453628413536</v>
+        <v>12.37162991871942</v>
       </c>
       <c r="D7">
-        <v>10.38570758744566</v>
+        <v>10.39110197922329</v>
       </c>
       <c r="E7">
-        <v>10.85638409424754</v>
+        <v>10.86824534768571</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.40484324822019</v>
+        <v>23.38990015408574</v>
       </c>
       <c r="H7">
-        <v>2.159201290713683</v>
+        <v>2.142204085292505</v>
       </c>
       <c r="I7">
-        <v>2.543660132635471</v>
+        <v>2.606516126632316</v>
       </c>
       <c r="J7">
-        <v>9.339290753061727</v>
+        <v>9.616568954169926</v>
       </c>
       <c r="K7">
-        <v>13.6093932132584</v>
+        <v>13.26849840647615</v>
       </c>
       <c r="L7">
-        <v>5.827096898322666</v>
+        <v>11.86524968936926</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.829324788734926</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.834179612887212</v>
       </c>
       <c r="O7">
-        <v>13.92983215015674</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.51980548994377</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.50340548935877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.93881236600656</v>
+      </c>
+      <c r="R7">
+        <v>12.49203584901177</v>
+      </c>
+      <c r="S7">
+        <v>15.24940570989986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.42357256224253</v>
+        <v>17.1922487504264</v>
       </c>
       <c r="C8">
-        <v>13.24010375573788</v>
+        <v>13.55833497623071</v>
       </c>
       <c r="D8">
-        <v>10.85576172799048</v>
+        <v>10.85603762735374</v>
       </c>
       <c r="E8">
-        <v>11.26137892423315</v>
+        <v>11.26112260582497</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.42592976310709</v>
+        <v>24.49311428604048</v>
       </c>
       <c r="H8">
-        <v>1.867099613986499</v>
+        <v>1.864014563463178</v>
       </c>
       <c r="I8">
-        <v>2.726984207897967</v>
+        <v>2.768906927111287</v>
       </c>
       <c r="J8">
-        <v>9.40259828114376</v>
+        <v>9.607524696951515</v>
       </c>
       <c r="K8">
-        <v>13.53737745282424</v>
+        <v>13.15354156202676</v>
       </c>
       <c r="L8">
-        <v>5.934197415548029</v>
+        <v>11.66342254668394</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.824592888549208</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.933234653695555</v>
       </c>
       <c r="O8">
-        <v>14.94946178243647</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.41258888460032</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.80222451294342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.95092003095103</v>
+      </c>
+      <c r="R8">
+        <v>12.41445675395699</v>
+      </c>
+      <c r="S8">
+        <v>15.48090854920222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.10022813409393</v>
+        <v>19.75249485082696</v>
       </c>
       <c r="C9">
-        <v>15.12081756556166</v>
+        <v>15.64354095601238</v>
       </c>
       <c r="D9">
-        <v>11.74018560817396</v>
+        <v>11.73097156176487</v>
       </c>
       <c r="E9">
-        <v>12.01657244090189</v>
+        <v>11.99448308760524</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.46309054573351</v>
+        <v>26.37558491013918</v>
       </c>
       <c r="H9">
-        <v>1.782643520700779</v>
+        <v>1.762244999854165</v>
       </c>
       <c r="I9">
-        <v>3.063999544999572</v>
+        <v>3.068329830279711</v>
       </c>
       <c r="J9">
-        <v>9.561050251473599</v>
+        <v>9.757350907130089</v>
       </c>
       <c r="K9">
-        <v>13.45982339448033</v>
+        <v>12.99848559055413</v>
       </c>
       <c r="L9">
-        <v>6.13179607611859</v>
+        <v>11.32134711616604</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.014247928241554</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.116430944279878</v>
       </c>
       <c r="O9">
-        <v>16.77391934874256</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.21744503150221</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.44715290526874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.77252408960817</v>
+      </c>
+      <c r="R9">
+        <v>12.2762865986591</v>
+      </c>
+      <c r="S9">
+        <v>16.0262622438546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.82140265258752</v>
+        <v>21.37629181571526</v>
       </c>
       <c r="C10">
-        <v>16.35467680492435</v>
+        <v>16.95823608941657</v>
       </c>
       <c r="D10">
-        <v>12.25311056511084</v>
+        <v>12.23971058343689</v>
       </c>
       <c r="E10">
-        <v>12.3690734356821</v>
+        <v>12.33506036187918</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.73119810821259</v>
+        <v>28.01090882092786</v>
       </c>
       <c r="H10">
-        <v>2.131567866493734</v>
+        <v>2.092579354501435</v>
       </c>
       <c r="I10">
-        <v>3.297097098988665</v>
+        <v>3.274344839991771</v>
       </c>
       <c r="J10">
-        <v>9.65622947875425</v>
+        <v>9.611047860330519</v>
       </c>
       <c r="K10">
-        <v>13.37281473597619</v>
+        <v>12.82488177208326</v>
       </c>
       <c r="L10">
-        <v>6.223729672176979</v>
+        <v>11.02704296217131</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.18348433474049</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.198272899194314</v>
       </c>
       <c r="O10">
-        <v>17.87455184150103</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.10188826637778</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.85038172656121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.85313938845611</v>
+      </c>
+      <c r="R10">
+        <v>12.21347088825192</v>
+      </c>
+      <c r="S10">
+        <v>16.30085907663641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.3684599151203</v>
+        <v>21.87390100904092</v>
       </c>
       <c r="C11">
-        <v>16.59660609622128</v>
+        <v>17.09562006054223</v>
       </c>
       <c r="D11">
-        <v>11.54991921958358</v>
+        <v>11.53853035593574</v>
       </c>
       <c r="E11">
-        <v>11.08876997526396</v>
+        <v>11.05110771661064</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.6946172743148</v>
+        <v>27.99993031934398</v>
       </c>
       <c r="H11">
-        <v>2.974749201779059</v>
+        <v>2.940500426907057</v>
       </c>
       <c r="I11">
-        <v>3.367207574259023</v>
+        <v>3.334956473168428</v>
       </c>
       <c r="J11">
-        <v>9.409139678408138</v>
+        <v>8.939086121644946</v>
       </c>
       <c r="K11">
-        <v>12.90649853046529</v>
+        <v>12.33482619315791</v>
       </c>
       <c r="L11">
-        <v>5.958797960848425</v>
+        <v>10.63024705411658</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.895507603763209</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.927816784610897</v>
       </c>
       <c r="O11">
-        <v>17.2608403608669</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.19063654688461</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.32094694179871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.20284569312892</v>
+      </c>
+      <c r="R11">
+        <v>12.3488271742004</v>
+      </c>
+      <c r="S11">
+        <v>15.66465792432929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.50035150139136</v>
+        <v>21.99864601700074</v>
       </c>
       <c r="C12">
-        <v>16.5107067790809</v>
+        <v>16.93102828987897</v>
       </c>
       <c r="D12">
-        <v>10.84565705415553</v>
+        <v>10.83542986163449</v>
       </c>
       <c r="E12">
-        <v>10.04697232745209</v>
+        <v>10.00492704346246</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.58126593167867</v>
+        <v>27.39565128595791</v>
       </c>
       <c r="H12">
-        <v>4.209547135774553</v>
+        <v>4.184654469944324</v>
       </c>
       <c r="I12">
-        <v>3.376612399749738</v>
+        <v>3.341421636487741</v>
       </c>
       <c r="J12">
-        <v>9.184983633569566</v>
+        <v>8.569487907574013</v>
       </c>
       <c r="K12">
-        <v>12.55330778835536</v>
+        <v>12.00134273402306</v>
       </c>
       <c r="L12">
-        <v>5.842008091127923</v>
+        <v>10.39528285440306</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.641468218085031</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.807890281189757</v>
       </c>
       <c r="O12">
-        <v>16.50258613385335</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.29844918441316</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.80041742614353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.42849950508421</v>
+      </c>
+      <c r="R12">
+        <v>12.47898731394667</v>
+      </c>
+      <c r="S12">
+        <v>15.11924112122791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.30672481703121</v>
+        <v>21.84038771408522</v>
       </c>
       <c r="C13">
-        <v>16.20170598534403</v>
+        <v>16.57563740708946</v>
       </c>
       <c r="D13">
-        <v>10.08662313347805</v>
+        <v>10.07621394814984</v>
       </c>
       <c r="E13">
-        <v>9.154644743313309</v>
+        <v>9.108476758699108</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.26330390405147</v>
+        <v>26.02073674478198</v>
       </c>
       <c r="H13">
-        <v>5.518320421190121</v>
+        <v>5.501219556377308</v>
       </c>
       <c r="I13">
-        <v>3.343478027421751</v>
+        <v>3.312501301834347</v>
       </c>
       <c r="J13">
-        <v>8.954059992961337</v>
+        <v>8.446950649209116</v>
       </c>
       <c r="K13">
-        <v>12.24334929839797</v>
+        <v>11.75562451991789</v>
       </c>
       <c r="L13">
-        <v>5.83449868991281</v>
+        <v>10.24940457401576</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.392643271995476</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.800642915026429</v>
       </c>
       <c r="O13">
-        <v>15.566596270585</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.42653434910087</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.22543432072688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.49801427790244</v>
+      </c>
+      <c r="R13">
+        <v>12.60533728176098</v>
+      </c>
+      <c r="S13">
+        <v>14.60510748594487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.01753165124426</v>
+        <v>21.595288624107</v>
       </c>
       <c r="C14">
-        <v>15.88752802832156</v>
+        <v>16.24207162547636</v>
       </c>
       <c r="D14">
-        <v>9.528448855573799</v>
+        <v>9.517435089338754</v>
       </c>
       <c r="E14">
-        <v>8.646777575392447</v>
+        <v>8.599470842388667</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.2274154090919</v>
+        <v>24.69754358052293</v>
       </c>
       <c r="H14">
-        <v>6.460024854481475</v>
+        <v>6.447342587330665</v>
       </c>
       <c r="I14">
-        <v>3.302101496817818</v>
+        <v>3.277575855709347</v>
       </c>
       <c r="J14">
-        <v>8.788081310693869</v>
+        <v>8.455889016147555</v>
       </c>
       <c r="K14">
-        <v>12.04506465479522</v>
+        <v>11.61926881913562</v>
       </c>
       <c r="L14">
-        <v>5.894827070197685</v>
+        <v>10.18077729527153</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.22079968066912</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.86338737669158</v>
       </c>
       <c r="O14">
-        <v>14.81916565118135</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.52610267187489</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.7929405668478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.7637595750146</v>
+      </c>
+      <c r="R14">
+        <v>12.69197289152342</v>
+      </c>
+      <c r="S14">
+        <v>14.25174296887551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.87113812033071</v>
+        <v>21.46813878226893</v>
       </c>
       <c r="C15">
-        <v>15.77147184651306</v>
+        <v>16.12677075475154</v>
       </c>
       <c r="D15">
-        <v>9.380795644700854</v>
+        <v>9.36952137318263</v>
       </c>
       <c r="E15">
-        <v>8.540997944360312</v>
+        <v>8.494483900529277</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.91970729665692</v>
+        <v>24.21492364146152</v>
       </c>
       <c r="H15">
-        <v>6.674181047386782</v>
+        <v>6.675645183837831</v>
       </c>
       <c r="I15">
-        <v>3.283844584557356</v>
+        <v>3.262886379149074</v>
       </c>
       <c r="J15">
-        <v>8.744890044681016</v>
+        <v>8.497729402723087</v>
       </c>
       <c r="K15">
-        <v>12.0018837566168</v>
+        <v>11.59846677528703</v>
       </c>
       <c r="L15">
-        <v>5.914570609120451</v>
+        <v>10.17637530162557</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.177194215186665</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.884660574601703</v>
       </c>
       <c r="O15">
-        <v>14.59813164445986</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.55409238944677</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.67208255036264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.54990967475693</v>
+      </c>
+      <c r="R15">
+        <v>12.71196528200507</v>
+      </c>
+      <c r="S15">
+        <v>14.16560807252176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.18707636532655</v>
+        <v>20.85696536690817</v>
       </c>
       <c r="C16">
-        <v>15.32124113812776</v>
+        <v>15.71737570276541</v>
       </c>
       <c r="D16">
-        <v>9.288806714081518</v>
+        <v>9.277044614829384</v>
       </c>
       <c r="E16">
-        <v>8.550339572087781</v>
+        <v>8.512336233665744</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.56063957140842</v>
+        <v>23.00095179437374</v>
       </c>
       <c r="H16">
-        <v>6.45483284486932</v>
+        <v>6.461221765735552</v>
       </c>
       <c r="I16">
-        <v>3.193295817438604</v>
+        <v>3.187005180139083</v>
       </c>
       <c r="J16">
-        <v>8.744791425256802</v>
+        <v>8.861638335162755</v>
       </c>
       <c r="K16">
-        <v>12.09554194487934</v>
+        <v>11.75096113409063</v>
       </c>
       <c r="L16">
-        <v>5.869470910646085</v>
+        <v>10.31885650124123</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.195434606816242</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.847146860343404</v>
       </c>
       <c r="O16">
-        <v>14.26918684867839</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.56615124371829</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.59259732633581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.25393581773685</v>
+      </c>
+      <c r="R16">
+        <v>12.68269206285796</v>
+      </c>
+      <c r="S16">
+        <v>14.21398737259493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.81117108559476</v>
+        <v>20.50674129885161</v>
       </c>
       <c r="C17">
-        <v>15.14538661950238</v>
+        <v>15.57236962308705</v>
       </c>
       <c r="D17">
-        <v>9.52046173665436</v>
+        <v>9.508957721183755</v>
       </c>
       <c r="E17">
-        <v>8.80467904868731</v>
+        <v>8.771839384043442</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.85339342907323</v>
+        <v>22.9146128693805</v>
       </c>
       <c r="H17">
-        <v>5.706264038333893</v>
+        <v>5.712490097242704</v>
       </c>
       <c r="I17">
-        <v>3.145796474410127</v>
+        <v>3.146896768911055</v>
       </c>
       <c r="J17">
-        <v>8.833537217520737</v>
+        <v>9.101844985477687</v>
       </c>
       <c r="K17">
-        <v>12.2709001971887</v>
+        <v>11.93493146738138</v>
       </c>
       <c r="L17">
-        <v>5.791763033870597</v>
+        <v>10.46889498621167</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.292109613947119</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.77291080443199</v>
       </c>
       <c r="O17">
-        <v>14.42889186887281</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.52433398901651</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.76527742792469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.427667466608</v>
+      </c>
+      <c r="R17">
+        <v>12.62070176194996</v>
+      </c>
+      <c r="S17">
+        <v>14.42896054637242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.68029753770444</v>
+        <v>20.37198645222038</v>
       </c>
       <c r="C18">
-        <v>15.17159143606479</v>
+        <v>15.64052812223132</v>
       </c>
       <c r="D18">
-        <v>10.06271261086893</v>
+        <v>10.05126048104754</v>
       </c>
       <c r="E18">
-        <v>9.416664634149789</v>
+        <v>9.386293369083704</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.76161071767405</v>
+        <v>23.6321198544553</v>
       </c>
       <c r="H18">
-        <v>4.425886091069567</v>
+        <v>4.433390090144808</v>
       </c>
       <c r="I18">
-        <v>3.128205688525847</v>
+        <v>3.130630646573326</v>
       </c>
       <c r="J18">
-        <v>9.012046562365155</v>
+        <v>9.331796974196493</v>
       </c>
       <c r="K18">
-        <v>12.54889782502519</v>
+        <v>12.18959578984512</v>
       </c>
       <c r="L18">
-        <v>5.742486827330024</v>
+        <v>10.66006969363237</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.479224187743506</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.724528307341177</v>
       </c>
       <c r="O18">
-        <v>15.02918961994052</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.43299414033703</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.18285147357726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.03356796643853</v>
+      </c>
+      <c r="R18">
+        <v>12.51949424404001</v>
+      </c>
+      <c r="S18">
+        <v>14.84241730464757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.73434154476567</v>
+        <v>20.40270207715351</v>
       </c>
       <c r="C19">
-        <v>15.40516638369128</v>
+        <v>15.92890238814355</v>
       </c>
       <c r="D19">
-        <v>10.81802038000357</v>
+        <v>10.80615308235362</v>
       </c>
       <c r="E19">
-        <v>10.40674106610178</v>
+        <v>10.37693869478128</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.02060408032572</v>
+        <v>24.79124041376259</v>
       </c>
       <c r="H19">
-        <v>3.033386563472518</v>
+        <v>3.019770503485311</v>
       </c>
       <c r="I19">
-        <v>3.145277428191651</v>
+        <v>3.1465303951529</v>
       </c>
       <c r="J19">
-        <v>9.238285242368164</v>
+        <v>9.555606305581698</v>
       </c>
       <c r="K19">
-        <v>12.86974519110071</v>
+        <v>12.46788030927393</v>
       </c>
       <c r="L19">
-        <v>5.816351535502781</v>
+        <v>10.8601492432159</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.709892804640825</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.797678452256657</v>
       </c>
       <c r="O19">
-        <v>15.92816081770716</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.32259088412033</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.73657315577108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.9335604881304</v>
+      </c>
+      <c r="R19">
+        <v>12.40562716251471</v>
+      </c>
+      <c r="S19">
+        <v>15.3644260492882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.34306781511299</v>
+        <v>20.93818427426875</v>
       </c>
       <c r="C20">
-        <v>16.11223714307877</v>
+        <v>16.72387073270827</v>
       </c>
       <c r="D20">
-        <v>12.11437536841706</v>
+        <v>12.10098724560952</v>
       </c>
       <c r="E20">
-        <v>12.26816888890142</v>
+        <v>12.23589092810028</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.28819330042479</v>
+        <v>27.18687184342196</v>
       </c>
       <c r="H20">
-        <v>2.037657408286118</v>
+        <v>2.005195288224122</v>
       </c>
       <c r="I20">
-        <v>3.244860268558085</v>
+        <v>3.233893954924251</v>
       </c>
       <c r="J20">
-        <v>9.609501305640409</v>
+        <v>9.769822248642274</v>
       </c>
       <c r="K20">
-        <v>13.34492405646501</v>
+        <v>12.84164391968884</v>
       </c>
       <c r="L20">
-        <v>6.19678752073475</v>
+        <v>11.08427439078369</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.109299509339477</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.174144994637711</v>
       </c>
       <c r="O20">
-        <v>17.58686122141131</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.14079005690902</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.69320589068529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.58130611182497</v>
+      </c>
+      <c r="R20">
+        <v>12.23468943625694</v>
+      </c>
+      <c r="S20">
+        <v>16.21436742679926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.63730442871767</v>
+        <v>22.07826702710716</v>
       </c>
       <c r="C21">
-        <v>17.0606564775789</v>
+        <v>17.60042500576532</v>
       </c>
       <c r="D21">
-        <v>12.66623867430734</v>
+        <v>12.65557932701743</v>
       </c>
       <c r="E21">
-        <v>12.80104012515516</v>
+        <v>12.76827336896755</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.55385411392444</v>
+        <v>30.19816559345065</v>
       </c>
       <c r="H21">
-        <v>2.317810707811395</v>
+        <v>2.26249389607665</v>
       </c>
       <c r="I21">
-        <v>3.425620990652551</v>
+        <v>3.385856617380917</v>
       </c>
       <c r="J21">
-        <v>9.74209825701047</v>
+        <v>9.008046636032448</v>
       </c>
       <c r="K21">
-        <v>13.3701697103205</v>
+        <v>12.68919193922531</v>
       </c>
       <c r="L21">
-        <v>6.335481751804371</v>
+        <v>10.85085394955309</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.240618925159971</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.305091668914355</v>
       </c>
       <c r="O21">
-        <v>18.59180148468947</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.03354025616846</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.14217275029489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.51618132275717</v>
+      </c>
+      <c r="R21">
+        <v>12.19461173420573</v>
+      </c>
+      <c r="S21">
+        <v>16.36715470437645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.44881647813753</v>
+        <v>22.79000940903493</v>
       </c>
       <c r="C22">
-        <v>17.61011726606127</v>
+        <v>18.09151804361777</v>
       </c>
       <c r="D22">
-        <v>12.96510214229429</v>
+        <v>12.95707672422989</v>
       </c>
       <c r="E22">
-        <v>13.05450080785173</v>
+        <v>13.02308378759884</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.31974179645581</v>
+        <v>32.19565746147985</v>
       </c>
       <c r="H22">
-        <v>2.491193977463022</v>
+        <v>2.421421566242912</v>
       </c>
       <c r="I22">
-        <v>3.536349948836512</v>
+        <v>3.477041705716066</v>
       </c>
       <c r="J22">
-        <v>9.822712749098384</v>
+        <v>8.501908513650895</v>
       </c>
       <c r="K22">
-        <v>13.38740306204793</v>
+        <v>12.58158800948986</v>
       </c>
       <c r="L22">
-        <v>6.401926789122451</v>
+        <v>10.69581639611895</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.329280875710911</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.367168763727903</v>
       </c>
       <c r="O22">
-        <v>19.16133817729767</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.96899304532391</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.41569718999419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.03742331067954</v>
+      </c>
+      <c r="R22">
+        <v>12.17807447838982</v>
+      </c>
+      <c r="S22">
+        <v>16.43549592343653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.03342751685578</v>
+        <v>22.43793407536971</v>
       </c>
       <c r="C23">
-        <v>17.29204369738059</v>
+        <v>17.82333953768197</v>
       </c>
       <c r="D23">
-        <v>12.80646354060595</v>
+        <v>12.79613202885188</v>
       </c>
       <c r="E23">
-        <v>12.92035750759985</v>
+        <v>12.88687416432179</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.94932815633308</v>
+        <v>30.96413884536624</v>
       </c>
       <c r="H23">
-        <v>2.399639417848687</v>
+        <v>2.338487283461074</v>
       </c>
       <c r="I23">
-        <v>3.474207914345265</v>
+        <v>3.424856318062203</v>
       </c>
       <c r="J23">
-        <v>9.786631718232266</v>
+        <v>8.861477474399321</v>
       </c>
       <c r="K23">
-        <v>13.39544613902318</v>
+        <v>12.66887046528276</v>
       </c>
       <c r="L23">
-        <v>6.366979759182543</v>
+        <v>10.79691040424951</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.30860737233173</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.334420780813216</v>
       </c>
       <c r="O23">
-        <v>18.85930285088315</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.99964719922103</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.2866389169332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.7685892416298</v>
+      </c>
+      <c r="R23">
+        <v>12.17841203281213</v>
+      </c>
+      <c r="S23">
+        <v>16.44193270917637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.3604957761097</v>
+        <v>20.95420892441344</v>
       </c>
       <c r="C24">
-        <v>16.08373628029577</v>
+        <v>16.70053385207961</v>
       </c>
       <c r="D24">
-        <v>12.19240331861652</v>
+        <v>12.17892373861526</v>
       </c>
       <c r="E24">
-        <v>12.39998968889568</v>
+        <v>12.36775956182133</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.47165770552439</v>
+        <v>27.34954865494483</v>
       </c>
       <c r="H24">
-        <v>2.044414774425227</v>
+        <v>2.011782068409589</v>
       </c>
       <c r="I24">
-        <v>3.239877488858207</v>
+        <v>3.226789755407337</v>
       </c>
       <c r="J24">
-        <v>9.644478199425068</v>
+        <v>9.809440420824151</v>
       </c>
       <c r="K24">
-        <v>13.40930266570398</v>
+        <v>12.90076145356266</v>
       </c>
       <c r="L24">
-        <v>6.2312980810112</v>
+        <v>11.1270183784791</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.157086231231405</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.208687329312024</v>
       </c>
       <c r="O24">
-        <v>17.67187552754949</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.12647451079071</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.77655856356615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.66684344821009</v>
+      </c>
+      <c r="R24">
+        <v>12.2183915760128</v>
+      </c>
+      <c r="S24">
+        <v>16.2958907412578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.38976811877056</v>
+        <v>19.0786200418454</v>
       </c>
       <c r="C25">
-        <v>14.68045561782205</v>
+        <v>15.16380111661004</v>
       </c>
       <c r="D25">
-        <v>11.50508052613091</v>
+        <v>11.49785638671415</v>
       </c>
       <c r="E25">
-        <v>11.81581398210134</v>
+        <v>11.79881698492188</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.85344328177169</v>
+        <v>25.68599464381707</v>
       </c>
       <c r="H25">
-        <v>1.644593923534618</v>
+        <v>1.631162877047621</v>
       </c>
       <c r="I25">
-        <v>2.97919362334518</v>
+        <v>2.995764470631378</v>
       </c>
       <c r="J25">
-        <v>9.504279356995042</v>
+        <v>9.762936335327032</v>
       </c>
       <c r="K25">
-        <v>13.44924125795671</v>
+        <v>13.01890247907976</v>
       </c>
       <c r="L25">
-        <v>6.07905568152918</v>
+        <v>11.3985515575089</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.929931503501941</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.067583558845439</v>
       </c>
       <c r="O25">
-        <v>16.2999854282659</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.27286947981867</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.24175032959726</v>
+        <v>16.30406955146984</v>
+      </c>
+      <c r="R25">
+        <v>12.31485418428677</v>
+      </c>
+      <c r="S25">
+        <v>15.86345219322643</v>
       </c>
     </row>
   </sheetData>
